--- a/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/з_пробілами/сортовані_біграми_не_перетинаючі_з_пробілами.xlsx
+++ b/lab1/redko-shpak_fb-21_seryakov_fb-21_cp1/output/з_пробілами/сортовані_біграми_не_перетинаючі_з_пробілами.xlsx
@@ -749,320 +749,256 @@
           <t xml:space="preserve"> п</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0.016745</t>
-        </is>
+      <c r="B2" t="n">
+        <v>0.01674501412500772</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">а </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.017391</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0.01739088922961141</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>бы</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.002769</t>
-        </is>
+      <c r="F2" t="n">
+        <v>0.002768838491909712</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
           <t xml:space="preserve">в </t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>0.006813</t>
-        </is>
+      <c r="H2" t="n">
+        <v>0.006812578277254525</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>го</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>0.007439</t>
-        </is>
+      <c r="J2" t="n">
+        <v>0.007438796313457229</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
           <t>да</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0.004341</t>
-        </is>
+      <c r="L2" t="n">
+        <v>0.004341403963988251</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t xml:space="preserve">е </t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0.016032</t>
-        </is>
+      <c r="N2" t="n">
+        <v>0.01603174335731496</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
           <t>же</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.002923</t>
-        </is>
+      <c r="P2" t="n">
+        <v>0.002923286886488854</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
           <t>за</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>0.005459</t>
-        </is>
+      <c r="R2" t="n">
+        <v>0.005459048710215498</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
           <t xml:space="preserve">и </t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>0.015874</t>
-        </is>
+      <c r="T2" t="n">
+        <v>0.0158744868101071</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
           <t xml:space="preserve">й </t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>0.007804</t>
-        </is>
+      <c r="V2" t="n">
+        <v>0.007803856155189747</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
           <t>ко</t>
         </is>
       </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>0.008219</t>
-        </is>
+      <c r="X2" t="n">
+        <v>0.008219462744239075</v>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
           <t xml:space="preserve">л </t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0.007779</t>
-        </is>
+      <c r="Z2" t="n">
+        <v>0.007778582781531341</v>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t xml:space="preserve">м </t>
         </is>
       </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>0.007228</t>
-        </is>
+      <c r="AB2" t="n">
+        <v>0.007228184866303854</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
           <t>но</t>
         </is>
       </c>
-      <c r="AD2" t="inlineStr">
-        <is>
-          <t>0.009820</t>
-        </is>
+      <c r="AD2" t="n">
+        <v>0.00982010974260473</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
           <t xml:space="preserve">о </t>
         </is>
       </c>
-      <c r="AF2" t="inlineStr">
-        <is>
-          <t>0.020778</t>
-        </is>
+      <c r="AF2" t="n">
+        <v>0.02077752129983769</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
           <t>по</t>
         </is>
       </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>0.009096</t>
-        </is>
+      <c r="AH2" t="n">
+        <v>0.009095606364397118</v>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
           <t>ро</t>
         </is>
       </c>
-      <c r="AJ2" t="inlineStr">
-        <is>
-          <t>0.007762</t>
-        </is>
+      <c r="AJ2" t="n">
+        <v>0.007761733865759072</v>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
           <t>ст</t>
         </is>
       </c>
-      <c r="AL2" t="inlineStr">
-        <is>
-          <t>0.009101</t>
-        </is>
+      <c r="AL2" t="n">
+        <v>0.009101222669654541</v>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
           <t>то</t>
         </is>
       </c>
-      <c r="AN2" t="inlineStr">
-        <is>
-          <t>0.013285</t>
-        </is>
+      <c r="AN2" t="n">
+        <v>0.01328537008643494</v>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
           <t xml:space="preserve">у </t>
         </is>
       </c>
-      <c r="AP2" t="inlineStr">
-        <is>
-          <t>0.006243</t>
-        </is>
+      <c r="AP2" t="n">
+        <v>0.006242523293626056</v>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
           <t>фе</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
-        <is>
-          <t>0.000489</t>
-        </is>
+      <c r="AR2" t="n">
+        <v>0.0004886185573958315</v>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
           <t xml:space="preserve">х </t>
         </is>
       </c>
-      <c r="AT2" t="inlineStr">
-        <is>
-          <t>0.002808</t>
-        </is>
+      <c r="AT2" t="n">
+        <v>0.002808152628711676</v>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
           <t>це</t>
         </is>
       </c>
-      <c r="AV2" t="inlineStr">
-        <is>
-          <t>0.000789</t>
-        </is>
+      <c r="AV2" t="n">
+        <v>0.0007890908886679809</v>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
           <t>че</t>
         </is>
       </c>
-      <c r="AX2" t="inlineStr">
-        <is>
-          <t>0.003665</t>
-        </is>
+      <c r="AX2" t="n">
+        <v>0.003664639180468737</v>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
           <t>ше</t>
         </is>
       </c>
-      <c r="AZ2" t="inlineStr">
-        <is>
-          <t>0.002027</t>
-        </is>
+      <c r="AZ2" t="n">
+        <v>0.00202748619792983</v>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
           <t>ще</t>
         </is>
       </c>
-      <c r="BB2" t="inlineStr">
-        <is>
-          <t>0.001199</t>
-        </is>
+      <c r="BB2" t="n">
+        <v>0.001199081172459886</v>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
           <t xml:space="preserve">ы </t>
         </is>
       </c>
-      <c r="BD2" t="inlineStr">
-        <is>
-          <t>0.003693</t>
-        </is>
+      <c r="BD2" t="n">
+        <v>0.003692720706755854</v>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
           <t xml:space="preserve">ь </t>
         </is>
       </c>
-      <c r="BF2" t="inlineStr">
-        <is>
-          <t>0.009135</t>
-        </is>
+      <c r="BF2" t="n">
+        <v>0.009134920501199082</v>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
           <t>эт</t>
         </is>
       </c>
-      <c r="BH2" t="inlineStr">
-        <is>
-          <t>0.002401</t>
-        </is>
+      <c r="BH2" t="n">
+        <v>0.002400970497548483</v>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
           <t xml:space="preserve">ю </t>
         </is>
       </c>
-      <c r="BJ2" t="inlineStr">
-        <is>
-          <t>0.002561</t>
-        </is>
+      <c r="BJ2" t="n">
+        <v>0.002561035197385048</v>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
           <t xml:space="preserve">я </t>
         </is>
       </c>
-      <c r="BL2" t="inlineStr">
-        <is>
-          <t>0.009045</t>
-        </is>
+      <c r="BL2" t="n">
+        <v>0.009045059617080308</v>
       </c>
     </row>
     <row r="3">
@@ -1071,320 +1007,256 @@
           <t xml:space="preserve"> в</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0.015807</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.01580709114701802</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>ал</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.008711</t>
-        </is>
+      <c r="D3" t="n">
+        <v>0.008710889454263617</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>бе</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.002275</t>
-        </is>
+      <c r="F3" t="n">
+        <v>0.002274603629256457</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>ва</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>0.006290</t>
-        </is>
+      <c r="H3" t="n">
+        <v>0.006290261888314153</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>га</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>0.002252</t>
-        </is>
+      <c r="J3" t="n">
+        <v>0.002252138408226764</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
           <t>де</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0.003898</t>
-        </is>
+      <c r="L3" t="n">
+        <v>0.003897715848651806</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>ер</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0.006594</t>
-        </is>
+      <c r="N3" t="n">
+        <v>0.006593542372215015</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
           <t>жа</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.001323</t>
-        </is>
+      <c r="P3" t="n">
+        <v>0.001322639888123199</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
           <t xml:space="preserve">з </t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.001556</t>
-        </is>
+      <c r="R3" t="n">
+        <v>0.001555716556306268</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
           <t>ил</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.006223</t>
-        </is>
+      <c r="T3" t="n">
+        <v>0.006222866225225073</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
           <t>йт</t>
         </is>
       </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>0.000388</t>
-        </is>
+      <c r="V3" t="n">
+        <v>0.0003875250627622112</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
           <t>ка</t>
         </is>
       </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>0.007175</t>
-        </is>
+      <c r="X3" t="n">
+        <v>0.007174829966358332</v>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
           <t>ла</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>0.007377</t>
-        </is>
+      <c r="Z3" t="n">
+        <v>0.007377016955625572</v>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>ма</t>
         </is>
       </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>0.003471</t>
-        </is>
+      <c r="AB3" t="n">
+        <v>0.003470876649087631</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
           <t>на</t>
         </is>
       </c>
-      <c r="AD3" t="inlineStr">
-        <is>
-          <t>0.009090</t>
-        </is>
+      <c r="AD3" t="n">
+        <v>0.009089990059139694</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
           <t>ов</t>
         </is>
       </c>
-      <c r="AF3" t="inlineStr">
-        <is>
-          <t>0.006911</t>
-        </is>
+      <c r="AF3" t="n">
+        <v>0.006910863619259434</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
           <t>пр</t>
         </is>
       </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>0.006442</t>
-        </is>
+      <c r="AH3" t="n">
+        <v>0.006441902130264584</v>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
           <t>ра</t>
         </is>
       </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>0.007329</t>
-        </is>
+      <c r="AJ3" t="n">
+        <v>0.007329278360937473</v>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
           <t>ск</t>
         </is>
       </c>
-      <c r="AL3" t="inlineStr">
-        <is>
-          <t>0.003971</t>
-        </is>
+      <c r="AL3" t="n">
+        <v>0.00397072781699831</v>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
           <t xml:space="preserve">т </t>
         </is>
       </c>
-      <c r="AN3" t="inlineStr">
-        <is>
-          <t>0.005678</t>
-        </is>
+      <c r="AN3" t="n">
+        <v>0.005678084615255008</v>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
           <t>ул</t>
         </is>
       </c>
-      <c r="AP3" t="inlineStr">
-        <is>
-          <t>0.002252</t>
-        </is>
+      <c r="AP3" t="n">
+        <v>0.002252138408226764</v>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
           <t>фи</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>0.000348</t>
-        </is>
+      <c r="AR3" t="n">
+        <v>0.0003482109259602478</v>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
           <t>хо</t>
         </is>
       </c>
-      <c r="AT3" t="inlineStr">
-        <is>
-          <t>0.001721</t>
-        </is>
+      <c r="AT3" t="n">
+        <v>0.001721397561400257</v>
       </c>
       <c r="AU3" t="inlineStr">
         <is>
           <t>ца</t>
         </is>
       </c>
-      <c r="AV3" t="inlineStr">
-        <is>
-          <t>0.000685</t>
-        </is>
+      <c r="AV3" t="n">
+        <v>0.0006851892414056488</v>
       </c>
       <c r="AW3" t="inlineStr">
         <is>
           <t>чт</t>
         </is>
       </c>
-      <c r="AX3" t="inlineStr">
-        <is>
-          <t>0.003033</t>
-        </is>
+      <c r="AX3" t="n">
+        <v>0.00303280483900861</v>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
           <t>ши</t>
         </is>
       </c>
-      <c r="AZ3" t="inlineStr">
-        <is>
-          <t>0.001780</t>
-        </is>
+      <c r="AZ3" t="n">
+        <v>0.001780368766603202</v>
       </c>
       <c r="BA3" t="inlineStr">
         <is>
           <t>щи</t>
         </is>
       </c>
-      <c r="BB3" t="inlineStr">
-        <is>
-          <t>0.001056</t>
-        </is>
+      <c r="BB3" t="n">
+        <v>0.00105586538839559</v>
       </c>
       <c r="BC3" t="inlineStr">
         <is>
           <t>ыл</t>
         </is>
       </c>
-      <c r="BD3" t="inlineStr">
-        <is>
-          <t>0.001839</t>
-        </is>
+      <c r="BD3" t="n">
+        <v>0.001839339971806148</v>
       </c>
       <c r="BE3" t="inlineStr">
         <is>
           <t>ьн</t>
         </is>
       </c>
-      <c r="BF3" t="inlineStr">
-        <is>
-          <t>0.001334</t>
-        </is>
+      <c r="BF3" t="n">
+        <v>0.001333872498638046</v>
       </c>
       <c r="BG3" t="inlineStr">
         <is>
           <t>эк</t>
         </is>
       </c>
-      <c r="BH3" t="inlineStr">
-        <is>
-          <t>0.000028</t>
-        </is>
+      <c r="BH3" t="n">
+        <v>2.808152628711676e-05</v>
       </c>
       <c r="BI3" t="inlineStr">
         <is>
           <t>ющ</t>
         </is>
       </c>
-      <c r="BJ3" t="inlineStr">
-        <is>
-          <t>0.000463</t>
-        </is>
+      <c r="BJ3" t="n">
+        <v>0.0004633451837374265</v>
       </c>
       <c r="BK3" t="inlineStr">
         <is>
           <t>ят</t>
         </is>
       </c>
-      <c r="BL3" t="inlineStr">
-        <is>
-          <t>0.001283</t>
-        </is>
+      <c r="BL3" t="n">
+        <v>0.001283325751321236</v>
       </c>
     </row>
     <row r="4">
@@ -1393,320 +1265,256 @@
           <t xml:space="preserve"> н</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0.014861</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.01486074371114219</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>ан</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.005192</t>
-        </is>
+      <c r="D4" t="n">
+        <v>0.005192274210487889</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>бо</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.001935</t>
-        </is>
+      <c r="F4" t="n">
+        <v>0.001934817161182345</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>во</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>0.006257</t>
-        </is>
+      <c r="H4" t="n">
+        <v>0.006256564056769613</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>гл</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>0.001536</t>
-        </is>
+      <c r="J4" t="n">
+        <v>0.001536059487905287</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>до</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0.003316</t>
-        </is>
+      <c r="L4" t="n">
+        <v>0.003316428254508489</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>ен</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0.006310</t>
-        </is>
+      <c r="N4" t="n">
+        <v>0.006309918956715135</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
           <t>жи</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0.001092</t>
-        </is>
+      <c r="P4" t="n">
+        <v>0.001092371372568842</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
           <t>зн</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>0.001354</t>
-        </is>
+      <c r="R4" t="n">
+        <v>0.001353529567039028</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
           <t>ит</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t>0.004069</t>
-        </is>
+      <c r="T4" t="n">
+        <v>0.004069013159003218</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
           <t>йс</t>
         </is>
       </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>0.000388</t>
-        </is>
+      <c r="V4" t="n">
+        <v>0.0003875250627622112</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
           <t xml:space="preserve">к </t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>0.004080</t>
-        </is>
+      <c r="X4" t="n">
+        <v>0.004080245769518064</v>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
           <t>ло</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>0.006257</t>
-        </is>
+      <c r="Z4" t="n">
+        <v>0.006256564056769613</v>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>ме</t>
         </is>
       </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>0.003142</t>
-        </is>
+      <c r="AB4" t="n">
+        <v>0.003142322791528365</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
           <t>не</t>
         </is>
       </c>
-      <c r="AD4" t="inlineStr">
-        <is>
-          <t>0.008950</t>
-        </is>
+      <c r="AD4" t="n">
+        <v>0.008949582427704111</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
           <t>от</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr">
-        <is>
-          <t>0.006403</t>
-        </is>
+      <c r="AF4" t="n">
+        <v>0.006402587993462621</v>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
           <t>пе</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>0.002095</t>
-        </is>
+      <c r="AH4" t="n">
+        <v>0.00209488186101891</v>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
           <t>ри</t>
         </is>
       </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>0.005695</t>
-        </is>
+      <c r="AJ4" t="n">
+        <v>0.005694933531027279</v>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
           <t>ся</t>
         </is>
       </c>
-      <c r="AL4" t="inlineStr">
-        <is>
-          <t>0.003867</t>
-        </is>
+      <c r="AL4" t="n">
+        <v>0.003866826169735977</v>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
           <t>те</t>
         </is>
       </c>
-      <c r="AN4" t="inlineStr">
-        <is>
-          <t>0.005661</t>
-        </is>
+      <c r="AN4" t="n">
+        <v>0.005661235699482738</v>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
           <t>уд</t>
         </is>
       </c>
-      <c r="AP4" t="inlineStr">
-        <is>
-          <t>0.001825</t>
-        </is>
+      <c r="AP4" t="n">
+        <v>0.001825299208662589</v>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
           <t>фа</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>0.000258</t>
-        </is>
+      <c r="AR4" t="n">
+        <v>0.0002583500418414742</v>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
           <t>ха</t>
         </is>
       </c>
-      <c r="AT4" t="inlineStr">
-        <is>
-          <t>0.000508</t>
-        </is>
+      <c r="AT4" t="n">
+        <v>0.0005082756257968133</v>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
           <t xml:space="preserve">ц </t>
         </is>
       </c>
-      <c r="AV4" t="inlineStr">
-        <is>
-          <t>0.000357</t>
-        </is>
+      <c r="AV4" t="n">
+        <v>0.0003566353838463828</v>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
           <t>ча</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
-        <is>
-          <t>0.002095</t>
-        </is>
+      <c r="AX4" t="n">
+        <v>0.00209488186101891</v>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
           <t>ша</t>
         </is>
       </c>
-      <c r="AZ4" t="inlineStr">
-        <is>
-          <t>0.001031</t>
-        </is>
+      <c r="AZ4" t="n">
+        <v>0.001030592014737185</v>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
           <t>ща</t>
         </is>
       </c>
-      <c r="BB4" t="inlineStr">
-        <is>
-          <t>0.000455</t>
-        </is>
+      <c r="BB4" t="n">
+        <v>0.0004549207258512915</v>
       </c>
       <c r="BC4" t="inlineStr">
         <is>
           <t>ый</t>
         </is>
       </c>
-      <c r="BD4" t="inlineStr">
-        <is>
-          <t>0.001749</t>
-        </is>
+      <c r="BD4" t="n">
+        <v>0.001749479087687374</v>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
           <t>ьк</t>
         </is>
       </c>
-      <c r="BF4" t="inlineStr">
-        <is>
-          <t>0.000921</t>
-        </is>
+      <c r="BF4" t="n">
+        <v>0.0009210740622174297</v>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
           <t>эх</t>
         </is>
       </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>0.000028</t>
-        </is>
+      <c r="BH4" t="n">
+        <v>2.808152628711676e-05</v>
       </c>
       <c r="BI4" t="inlineStr">
         <is>
           <t>ют</t>
         </is>
       </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>0.000278</t>
-        </is>
+      <c r="BJ4" t="n">
+        <v>0.0002780071102424559</v>
       </c>
       <c r="BK4" t="inlineStr">
         <is>
           <t>ял</t>
         </is>
       </c>
-      <c r="BL4" t="inlineStr">
-        <is>
-          <t>0.000826</t>
-        </is>
+      <c r="BL4" t="n">
+        <v>0.0008255968728412326</v>
       </c>
     </row>
     <row r="5">
@@ -1715,320 +1523,256 @@
           <t xml:space="preserve"> с</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0.014661</t>
-        </is>
+      <c r="B5" t="n">
+        <v>0.01466136487450366</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>ат</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.004833</t>
-        </is>
+      <c r="D5" t="n">
+        <v>0.004832830674012794</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>бу</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.001222</t>
-        </is>
+      <c r="F5" t="n">
+        <v>0.001221546393489579</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>ве</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>0.005512</t>
-        </is>
+      <c r="H5" t="n">
+        <v>0.00551240361016102</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>гр</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>0.001325</t>
-        </is>
+      <c r="J5" t="n">
+        <v>0.001325448040751911</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
           <t>ди</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0.001971</t>
-        </is>
+      <c r="L5" t="n">
+        <v>0.001971323145355597</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>ел</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0.005922</t>
-        </is>
+      <c r="N5" t="n">
+        <v>0.005922393893952924</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
           <t>жд</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0.000694</t>
-        </is>
+      <c r="P5" t="n">
+        <v>0.0006936136992917839</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
           <t>зв</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.001165</t>
-        </is>
+      <c r="R5" t="n">
+        <v>0.001165383340915346</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
           <t>ин</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.003190</t>
-        </is>
+      <c r="T5" t="n">
+        <v>0.003190061386216463</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
           <t>йн</t>
         </is>
       </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>0.000373</t>
-        </is>
+      <c r="V5" t="n">
+        <v>0.0003734842996186528</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
           <t>ки</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>0.002996</t>
-        </is>
+      <c r="X5" t="n">
+        <v>0.002996298854835358</v>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
           <t>ли</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>0.006172</t>
-        </is>
+      <c r="Z5" t="n">
+        <v>0.006172319477908263</v>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>ми</t>
         </is>
       </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>0.002895</t>
-        </is>
+      <c r="AB5" t="n">
+        <v>0.002895205360201738</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
           <t>ни</t>
         </is>
       </c>
-      <c r="AD5" t="inlineStr">
-        <is>
-          <t>0.007121</t>
-        </is>
+      <c r="AD5" t="n">
+        <v>0.00712147506641281</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
           <t>ор</t>
         </is>
       </c>
-      <c r="AF5" t="inlineStr">
-        <is>
-          <t>0.006248</t>
-        </is>
+      <c r="AF5" t="n">
+        <v>0.006248139598883478</v>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
           <t>па</t>
         </is>
       </c>
-      <c r="AH5" t="inlineStr">
-        <is>
-          <t>0.001707</t>
-        </is>
+      <c r="AH5" t="n">
+        <v>0.001707356798256699</v>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
           <t>ре</t>
         </is>
       </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>0.005563</t>
-        </is>
+      <c r="AJ5" t="n">
+        <v>0.00556295035747783</v>
       </c>
       <c r="AK5" t="inlineStr">
         <is>
           <t>сь</t>
         </is>
       </c>
-      <c r="AL5" t="inlineStr">
-        <is>
-          <t>0.003429</t>
-        </is>
+      <c r="AL5" t="n">
+        <v>0.003428754359656956</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
           <t>та</t>
         </is>
       </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>0.005569</t>
-        </is>
+      <c r="AN5" t="n">
+        <v>0.005568566662735253</v>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
           <t>ут</t>
         </is>
       </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>0.001620</t>
-        </is>
+      <c r="AP5" t="n">
+        <v>0.001620304066766637</v>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
           <t>фо</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>0.000247</t>
-        </is>
+      <c r="AR5" t="n">
+        <v>0.0002471174313266274</v>
       </c>
       <c r="AS5" t="inlineStr">
         <is>
           <t>хн</t>
         </is>
       </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>0.000345</t>
-        </is>
+      <c r="AT5" t="n">
+        <v>0.0003454027733315361</v>
       </c>
       <c r="AU5" t="inlineStr">
         <is>
           <t>ци</t>
         </is>
       </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>0.000270</t>
-        </is>
+      <c r="AV5" t="n">
+        <v>0.0002695826523563209</v>
       </c>
       <c r="AW5" t="inlineStr">
         <is>
           <t>чи</t>
         </is>
       </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>0.001559</t>
-        </is>
+      <c r="AX5" t="n">
+        <v>0.00155852470893498</v>
       </c>
       <c r="AY5" t="inlineStr">
         <is>
           <t>шл</t>
         </is>
       </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>0.000472</t>
-        </is>
+      <c r="AZ5" t="n">
+        <v>0.0004717696416235615</v>
       </c>
       <c r="BA5" t="inlineStr">
         <is>
           <t>щу</t>
         </is>
       </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>0.000149</t>
-        </is>
+      <c r="BB5" t="n">
+        <v>0.0001488320893217188</v>
       </c>
       <c r="BC5" t="inlineStr">
         <is>
           <t>ым</t>
         </is>
       </c>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>0.001165</t>
-        </is>
+      <c r="BD5" t="n">
+        <v>0.001165383340915346</v>
       </c>
       <c r="BE5" t="inlineStr">
         <is>
           <t>ье</t>
         </is>
       </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>0.000848</t>
-        </is>
+      <c r="BF5" t="n">
+        <v>0.000848062093870926</v>
       </c>
       <c r="BG5" t="inlineStr">
         <is>
           <t>эр</t>
         </is>
       </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="BH5" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="BI5" t="inlineStr">
         <is>
           <t>юд</t>
         </is>
       </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>0.000236</t>
-        </is>
+      <c r="BJ5" t="n">
+        <v>0.0002358848208117808</v>
       </c>
       <c r="BK5" t="inlineStr">
         <is>
           <t>яс</t>
         </is>
       </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>0.000772</t>
-        </is>
+      <c r="BL5" t="n">
+        <v>0.0007722419728957108</v>
       </c>
     </row>
     <row r="6">
@@ -2037,320 +1781,256 @@
           <t xml:space="preserve"> и</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0.010918</t>
-        </is>
+      <c r="B6" t="n">
+        <v>0.010918097420431</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>ар</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.004378</t>
-        </is>
+      <c r="D6" t="n">
+        <v>0.004377909948161503</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>бр</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.001036</t>
-        </is>
+      <c r="F6" t="n">
+        <v>0.001036208319994608</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>ви</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>0.003704</t>
-        </is>
+      <c r="H6" t="n">
+        <v>0.0037039533172707</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>гд</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>0.000848</t>
-        </is>
+      <c r="J6" t="n">
+        <v>0.000848062093870926</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
           <t>дн</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0.001862</t>
-        </is>
+      <c r="L6" t="n">
+        <v>0.001861805192835841</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>ет</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0.005243</t>
-        </is>
+      <c r="N6" t="n">
+        <v>0.005242820957804699</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
           <t>жн</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0.000635</t>
-        </is>
+      <c r="P6" t="n">
+        <v>0.0006346424940888387</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
           <t>зд</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.000859</t>
-        </is>
+      <c r="R6" t="n">
+        <v>0.0008592947043857727</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
           <t>ис</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.002920</t>
-        </is>
+      <c r="T6" t="n">
+        <v>0.002920478733860143</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
           <t>йш</t>
         </is>
       </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>0.000222</t>
-        </is>
+      <c r="V6" t="n">
+        <v>0.0002218440576682224</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
           <t>ку</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>0.002131</t>
-        </is>
+      <c r="X6" t="n">
+        <v>0.002131387845192162</v>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
           <t>ле</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>0.004465</t>
-        </is>
+      <c r="Z6" t="n">
+        <v>0.004464962679651564</v>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>мо</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>0.002794</t>
-        </is>
+      <c r="AB6" t="n">
+        <v>0.002794111865568117</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
           <t>ну</t>
         </is>
       </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>0.003628</t>
-        </is>
+      <c r="AD6" t="n">
+        <v>0.003628133196295485</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
           <t>ол</t>
         </is>
       </c>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>0.006220</t>
-        </is>
+      <c r="AF6" t="n">
+        <v>0.006220058072596362</v>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
           <t>пи</t>
         </is>
       </c>
-      <c r="AH6" t="inlineStr">
-        <is>
-          <t>0.001238</t>
-        </is>
+      <c r="AH6" t="n">
+        <v>0.001238395309261849</v>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
           <t>ру</t>
         </is>
       </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>0.002474</t>
-        </is>
+      <c r="AJ6" t="n">
+        <v>0.002473982465894986</v>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
           <t>се</t>
         </is>
       </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>0.002856</t>
-        </is>
+      <c r="AL6" t="n">
+        <v>0.002855891223399774</v>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
           <t>ть</t>
         </is>
       </c>
-      <c r="AN6" t="inlineStr">
-        <is>
-          <t>0.004501</t>
-        </is>
+      <c r="AN6" t="n">
+        <v>0.004501468663824816</v>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
           <t>ус</t>
         </is>
       </c>
-      <c r="AP6" t="inlineStr">
-        <is>
-          <t>0.001208</t>
-        </is>
+      <c r="AP6" t="n">
+        <v>0.001207505630346021</v>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
           <t>фр</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
-        <is>
-          <t>0.000191</t>
-        </is>
+      <c r="AR6" t="n">
+        <v>0.0001909543787523939</v>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
           <t>хи</t>
         </is>
       </c>
-      <c r="AT6" t="inlineStr">
-        <is>
-          <t>0.000329</t>
-        </is>
+      <c r="AT6" t="n">
+        <v>0.000328553857559266</v>
       </c>
       <c r="AU6" t="inlineStr">
         <is>
           <t>цо</t>
         </is>
       </c>
-      <c r="AV6" t="inlineStr">
-        <is>
-          <t>0.000267</t>
-        </is>
+      <c r="AV6" t="n">
+        <v>0.0002667744997276092</v>
       </c>
       <c r="AW6" t="inlineStr">
         <is>
           <t>чн</t>
         </is>
       </c>
-      <c r="AX6" t="inlineStr">
-        <is>
-          <t>0.000764</t>
-        </is>
+      <c r="AX6" t="n">
+        <v>0.0007638175150095758</v>
       </c>
       <c r="AY6" t="inlineStr">
         <is>
           <t>шк</t>
         </is>
       </c>
-      <c r="AZ6" t="inlineStr">
-        <is>
-          <t>0.000432</t>
-        </is>
+      <c r="AZ6" t="n">
+        <v>0.0004324555048215981</v>
       </c>
       <c r="BA6" t="inlineStr">
         <is>
           <t>щн</t>
         </is>
       </c>
-      <c r="BB6" t="inlineStr">
-        <is>
-          <t>0.000056</t>
-        </is>
+      <c r="BB6" t="n">
+        <v>5.616305257423352e-05</v>
       </c>
       <c r="BC6" t="inlineStr">
         <is>
           <t>ых</t>
         </is>
       </c>
-      <c r="BD6" t="inlineStr">
-        <is>
-          <t>0.000904</t>
-        </is>
+      <c r="BD6" t="n">
+        <v>0.0009042251464451596</v>
       </c>
       <c r="BE6" t="inlineStr">
         <is>
           <t>ьс</t>
         </is>
       </c>
-      <c r="BF6" t="inlineStr">
-        <is>
-          <t>0.000674</t>
-        </is>
+      <c r="BF6" t="n">
+        <v>0.0006739566308908021</v>
       </c>
       <c r="BG6" t="inlineStr">
         <is>
           <t>эн</t>
         </is>
       </c>
-      <c r="BH6" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="BH6" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="BI6" t="inlineStr">
         <is>
           <t>юс</t>
         </is>
       </c>
-      <c r="BJ6" t="inlineStr">
-        <is>
-          <t>0.000191</t>
-        </is>
+      <c r="BJ6" t="n">
+        <v>0.0001909543787523939</v>
       </c>
       <c r="BK6" t="inlineStr">
         <is>
           <t>яд</t>
         </is>
       </c>
-      <c r="BL6" t="inlineStr">
-        <is>
-          <t>0.000609</t>
-        </is>
+      <c r="BL6" t="n">
+        <v>0.0006093691204304337</v>
       </c>
     </row>
     <row r="7">
@@ -2359,320 +2039,256 @@
           <t xml:space="preserve"> о</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0.009573</t>
-        </is>
+      <c r="B7" t="n">
+        <v>0.009572992311278103</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>ак</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.004198</t>
-        </is>
+      <c r="D7" t="n">
+        <v>0.004198188179923955</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>ба</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.000960</t>
-        </is>
+      <c r="F7" t="n">
+        <v>0.0009603881990193931</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>вы</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>0.002519</t>
-        </is>
+      <c r="H7" t="n">
+        <v>0.002518912907954373</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>ги</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>0.000654</t>
-        </is>
+      <c r="J7" t="n">
+        <v>0.0006542995624898205</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
           <t xml:space="preserve">д </t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0.001469</t>
-        </is>
+      <c r="L7" t="n">
+        <v>0.001468663824816206</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>ес</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0.003976</t>
-        </is>
+      <c r="N7" t="n">
+        <v>0.003976344122255733</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
           <t xml:space="preserve">ж </t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0.000264</t>
-        </is>
+      <c r="P7" t="n">
+        <v>0.0002639663470988975</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
           <t>зо</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>0.000666</t>
-        </is>
+      <c r="R7" t="n">
+        <v>0.0006655321730046672</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>ив</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>0.002766</t>
-        </is>
+      <c r="T7" t="n">
+        <v>0.002766030339281</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
           <t>йч</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>0.000180</t>
-        </is>
+      <c r="V7" t="n">
+        <v>0.0001797217682375472</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>кр</t>
         </is>
       </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>0.002120</t>
-        </is>
+      <c r="X7" t="n">
+        <v>0.002120155234677315</v>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
           <t>ль</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>0.003434</t>
-        </is>
+      <c r="Z7" t="n">
+        <v>0.00343437066491438</v>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>му</t>
         </is>
       </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>0.001702</t>
-        </is>
+      <c r="AB7" t="n">
+        <v>0.001701740492999275</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
           <t>ны</t>
         </is>
       </c>
-      <c r="AD7" t="inlineStr">
-        <is>
-          <t>0.003294</t>
-        </is>
+      <c r="AD7" t="n">
+        <v>0.003293963033478796</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
           <t>ом</t>
         </is>
       </c>
-      <c r="AF7" t="inlineStr">
-        <is>
-          <t>0.005743</t>
-        </is>
+      <c r="AF7" t="n">
+        <v>0.005742672125715377</v>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
           <t>пл</t>
         </is>
       </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>0.000893</t>
-        </is>
+      <c r="AH7" t="n">
+        <v>0.0008929925359303129</v>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
           <t xml:space="preserve">р </t>
         </is>
       </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>0.001469</t>
-        </is>
+      <c r="AJ7" t="n">
+        <v>0.001468663824816206</v>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
           <t xml:space="preserve">с </t>
         </is>
       </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>0.002791</t>
-        </is>
+      <c r="AL7" t="n">
+        <v>0.002791303712939406</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
           <t>ти</t>
         </is>
       </c>
-      <c r="AN7" t="inlineStr">
-        <is>
-          <t>0.003415</t>
-        </is>
+      <c r="AN7" t="n">
+        <v>0.003414713596513397</v>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
           <t>уж</t>
         </is>
       </c>
-      <c r="AP7" t="inlineStr">
-        <is>
-          <t>0.001168</t>
-        </is>
+      <c r="AP7" t="n">
+        <v>0.001168191493544057</v>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
           <t>фл</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
-        <is>
-          <t>0.000081</t>
-        </is>
+      <c r="AR7" t="n">
+        <v>8.143642623263859e-05</v>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
           <t>ху</t>
         </is>
       </c>
-      <c r="AT7" t="inlineStr">
-        <is>
-          <t>0.000225</t>
-        </is>
+      <c r="AT7" t="n">
+        <v>0.0002246522102969341</v>
       </c>
       <c r="AU7" t="inlineStr">
         <is>
           <t>цы</t>
         </is>
       </c>
-      <c r="AV7" t="inlineStr">
-        <is>
-          <t>0.000177</t>
-        </is>
+      <c r="AV7" t="n">
+        <v>0.0001769136156088356</v>
       </c>
       <c r="AW7" t="inlineStr">
         <is>
           <t xml:space="preserve">ч </t>
         </is>
       </c>
-      <c r="AX7" t="inlineStr">
-        <is>
-          <t>0.000587</t>
-        </is>
+      <c r="AX7" t="n">
+        <v>0.0005869038994007402</v>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
           <t>шу</t>
         </is>
       </c>
-      <c r="AZ7" t="inlineStr">
-        <is>
-          <t>0.000396</t>
-        </is>
+      <c r="AZ7" t="n">
+        <v>0.0003959495206483463</v>
       </c>
       <c r="BA7" t="inlineStr">
         <is>
           <t xml:space="preserve">щ </t>
         </is>
       </c>
-      <c r="BB7" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="BB7" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="BC7" t="inlineStr">
         <is>
           <t>ые</t>
         </is>
       </c>
-      <c r="BD7" t="inlineStr">
-        <is>
-          <t>0.000868</t>
-        </is>
+      <c r="BD7" t="n">
+        <v>0.0008677191622719078</v>
       </c>
       <c r="BE7" t="inlineStr">
         <is>
           <t>ья</t>
         </is>
       </c>
-      <c r="BF7" t="inlineStr">
-        <is>
-          <t>0.000402</t>
-        </is>
+      <c r="BF7" t="n">
+        <v>0.0004015658259057696</v>
       </c>
       <c r="BG7" t="inlineStr">
         <is>
           <t>эй</t>
         </is>
       </c>
-      <c r="BH7" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="BH7" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="BI7" t="inlineStr">
         <is>
           <t>юб</t>
         </is>
       </c>
-      <c r="BJ7" t="inlineStr">
-        <is>
-          <t>0.000138</t>
-        </is>
+      <c r="BJ7" t="n">
+        <v>0.0001375994788068721</v>
       </c>
       <c r="BK7" t="inlineStr">
         <is>
           <t>ян</t>
         </is>
       </c>
-      <c r="BL7" t="inlineStr">
-        <is>
-          <t>0.000553</t>
-        </is>
+      <c r="BL7" t="n">
+        <v>0.0005532060678562001</v>
       </c>
     </row>
     <row r="8">
@@ -2681,320 +2297,256 @@
           <t xml:space="preserve"> к</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>0.009284</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.0092837525905208</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>ас</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.004077</t>
-        </is>
+      <c r="D8" t="n">
+        <v>0.004077437616889354</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>би</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.000716</t>
-        </is>
+      <c r="F8" t="n">
+        <v>0.0007160789203214773</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>вс</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>0.002137</t>
-        </is>
+      <c r="H8" t="n">
+        <v>0.002137004150449585</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>гу</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>0.000475</t>
-        </is>
+      <c r="J8" t="n">
+        <v>0.0004745777942522732</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
           <t>ду</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>0.001443</t>
-        </is>
+      <c r="L8" t="n">
+        <v>0.001443390451157801</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>ем</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>0.003746</t>
-        </is>
+      <c r="N8" t="n">
+        <v>0.003746075606701376</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
           <t>жу</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>0.000202</t>
-        </is>
+      <c r="P8" t="n">
+        <v>0.0002021869892672406</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
           <t>зе</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.000618</t>
-        </is>
+      <c r="R8" t="n">
+        <v>0.0006177935783165686</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
           <t>ик</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>0.002693</t>
-        </is>
+      <c r="T8" t="n">
+        <v>0.002693018370934497</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
           <t>йк</t>
         </is>
       </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>0.000163</t>
-        </is>
+      <c r="V8" t="n">
+        <v>0.0001628728524652772</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
           <t>кл</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>0.000828</t>
-        </is>
+      <c r="X8" t="n">
+        <v>0.0008284050254699443</v>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
           <t>лс</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>0.001873</t>
-        </is>
+      <c r="Z8" t="n">
+        <v>0.001873037803350688</v>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>мн</t>
         </is>
       </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>0.001261</t>
-        </is>
+      <c r="AB8" t="n">
+        <v>0.001260860530291542</v>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
           <t xml:space="preserve">н </t>
         </is>
       </c>
-      <c r="AD8" t="inlineStr">
-        <is>
-          <t>0.003162</t>
-        </is>
+      <c r="AD8" t="n">
+        <v>0.003161979859929347</v>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
           <t>ос</t>
         </is>
       </c>
-      <c r="AF8" t="inlineStr">
-        <is>
-          <t>0.005597</t>
-        </is>
+      <c r="AF8" t="n">
+        <v>0.00559664818902237</v>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
           <t>пу</t>
         </is>
       </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>0.000781</t>
-        </is>
+      <c r="AH8" t="n">
+        <v>0.0007806664307818458</v>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
           <t>ры</t>
         </is>
       </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>0.001331</t>
-        </is>
+      <c r="AJ8" t="n">
+        <v>0.001331064346009334</v>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
           <t>сл</t>
         </is>
       </c>
-      <c r="AL8" t="inlineStr">
-        <is>
-          <t>0.002628</t>
-        </is>
+      <c r="AL8" t="n">
+        <v>0.002628430860474128</v>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
           <t>тр</t>
         </is>
       </c>
-      <c r="AN8" t="inlineStr">
-        <is>
-          <t>0.002940</t>
-        </is>
+      <c r="AN8" t="n">
+        <v>0.002940135802261125</v>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
           <t>ую</t>
         </is>
       </c>
-      <c r="AP8" t="inlineStr">
-        <is>
-          <t>0.000988</t>
-        </is>
+      <c r="AP8" t="n">
+        <v>0.0009884697253065098</v>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
           <t>фу</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
-        <is>
-          <t>0.000048</t>
-        </is>
+      <c r="AR8" t="n">
+        <v>4.773859468809848e-05</v>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
           <t>хр</t>
         </is>
       </c>
-      <c r="AT8" t="inlineStr">
-        <is>
-          <t>0.000180</t>
-        </is>
+      <c r="AT8" t="n">
+        <v>0.0001797217682375472</v>
       </c>
       <c r="AU8" t="inlineStr">
         <is>
           <t>цу</t>
         </is>
       </c>
-      <c r="AV8" t="inlineStr">
-        <is>
-          <t>0.000149</t>
-        </is>
+      <c r="AV8" t="n">
+        <v>0.0001488320893217188</v>
       </c>
       <c r="AW8" t="inlineStr">
         <is>
           <t>чу</t>
         </is>
       </c>
-      <c r="AX8" t="inlineStr">
-        <is>
-          <t>0.000494</t>
-        </is>
+      <c r="AX8" t="n">
+        <v>0.0004942348626532549</v>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
           <t>шн</t>
         </is>
       </c>
-      <c r="AZ8" t="inlineStr">
-        <is>
-          <t>0.000343</t>
-        </is>
+      <c r="AZ8" t="n">
+        <v>0.0003425946207028244</v>
       </c>
       <c r="BA8" t="inlineStr">
         <is>
           <t>щь</t>
         </is>
       </c>
-      <c r="BB8" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="BB8" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="BC8" t="inlineStr">
         <is>
           <t>ыв</t>
         </is>
       </c>
-      <c r="BD8" t="inlineStr">
-        <is>
-          <t>0.000851</t>
-        </is>
+      <c r="BD8" t="n">
+        <v>0.0008508702464996377</v>
       </c>
       <c r="BE8" t="inlineStr">
         <is>
           <t>ью</t>
         </is>
       </c>
-      <c r="BF8" t="inlineStr">
-        <is>
-          <t>0.000337</t>
-        </is>
+      <c r="BF8" t="n">
+        <v>0.0003369783154454011</v>
       </c>
       <c r="BG8" t="inlineStr">
         <is>
           <t>эл</t>
         </is>
       </c>
-      <c r="BH8" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="BH8" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="BI8" t="inlineStr">
         <is>
           <t>юч</t>
         </is>
       </c>
-      <c r="BJ8" t="inlineStr">
-        <is>
-          <t>0.000124</t>
-        </is>
+      <c r="BJ8" t="n">
+        <v>0.0001235587156633137</v>
       </c>
       <c r="BK8" t="inlineStr">
         <is>
           <t>яв</t>
         </is>
       </c>
-      <c r="BL8" t="inlineStr">
-        <is>
-          <t>0.000432</t>
-        </is>
+      <c r="BL8" t="n">
+        <v>0.0004324555048215981</v>
       </c>
     </row>
     <row r="9">
@@ -3003,320 +2555,256 @@
           <t xml:space="preserve"> т</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0.007324</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0.007323662055680051</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t>аз</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.003903</t>
-        </is>
+      <c r="D9" t="n">
+        <v>0.003903332153909229</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>бл</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.000598</t>
-        </is>
+      <c r="F9" t="n">
+        <v>0.0005981365099155869</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>вш</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>0.000960</t>
-        </is>
+      <c r="H9" t="n">
+        <v>0.0009603881990193931</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
           <t xml:space="preserve">г </t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>0.000441</t>
-        </is>
+      <c r="J9" t="n">
+        <v>0.0004408799627077331</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>дв</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>0.000927</t>
-        </is>
+      <c r="L9" t="n">
+        <v>0.000926690367474853</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>ег</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>0.003050</t>
-        </is>
+      <c r="N9" t="n">
+        <v>0.00304965375478088</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
           <t>жк</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.000143</t>
-        </is>
+      <c r="P9" t="n">
+        <v>0.0001432157840642955</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
           <t>зи</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>0.000477</t>
-        </is>
+      <c r="R9" t="n">
+        <v>0.0004773859468809849</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
           <t>им</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.002452</t>
-        </is>
+      <c r="T9" t="n">
+        <v>0.002451517244865293</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
           <t>йд</t>
         </is>
       </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>0.000098</t>
-        </is>
+      <c r="V9" t="n">
+        <v>9.828534200490864e-05</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
           <t>ке</t>
         </is>
       </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>0.000795</t>
-        </is>
+      <c r="X9" t="n">
+        <v>0.0007947071939254042</v>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
           <t>лу</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>0.001289</t>
-        </is>
+      <c r="Z9" t="n">
+        <v>0.001288942056578659</v>
       </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>мы</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>0.000694</t>
-        </is>
+      <c r="AB9" t="n">
+        <v>0.0006936136992917839</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
           <t>нн</t>
         </is>
       </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>0.003010</t>
-        </is>
+      <c r="AD9" t="n">
+        <v>0.003010339617978916</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
           <t>он</t>
         </is>
       </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>0.005310</t>
-        </is>
+      <c r="AF9" t="n">
+        <v>0.005310216620893779</v>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
           <t>пя</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>0.000371</t>
-        </is>
+      <c r="AH9" t="n">
+        <v>0.0003706761469899412</v>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
           <t>ря</t>
         </is>
       </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>0.001053</t>
-        </is>
+      <c r="AJ9" t="n">
+        <v>0.001053057235766878</v>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
           <t>со</t>
         </is>
       </c>
-      <c r="AL9" t="inlineStr">
-        <is>
-          <t>0.002541</t>
-        </is>
+      <c r="AL9" t="n">
+        <v>0.002541378128984066</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
           <t>тв</t>
         </is>
       </c>
-      <c r="AN9" t="inlineStr">
-        <is>
-          <t>0.001983</t>
-        </is>
+      <c r="AN9" t="n">
+        <v>0.001982555755870443</v>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
           <t>ур</t>
         </is>
       </c>
-      <c r="AP9" t="inlineStr">
-        <is>
-          <t>0.000974</t>
-        </is>
+      <c r="AP9" t="n">
+        <v>0.0009744289621629515</v>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
           <t>фы</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="AR9" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
           <t>хв</t>
         </is>
       </c>
-      <c r="AT9" t="inlineStr">
-        <is>
-          <t>0.000177</t>
-        </is>
+      <c r="AT9" t="n">
+        <v>0.0001769136156088356</v>
       </c>
       <c r="AU9" t="inlineStr">
         <is>
           <t>цв</t>
         </is>
       </c>
-      <c r="AV9" t="inlineStr">
-        <is>
-          <t>0.000045</t>
-        </is>
+      <c r="AV9" t="n">
+        <v>4.493044205938681e-05</v>
       </c>
       <c r="AW9" t="inlineStr">
         <is>
           <t>чк</t>
         </is>
       </c>
-      <c r="AX9" t="inlineStr">
-        <is>
-          <t>0.000489</t>
-        </is>
+      <c r="AX9" t="n">
+        <v>0.0004886185573958315</v>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
           <t>шь</t>
         </is>
       </c>
-      <c r="AZ9" t="inlineStr">
-        <is>
-          <t>0.000343</t>
-        </is>
+      <c r="AZ9" t="n">
+        <v>0.0003425946207028244</v>
       </c>
       <c r="BA9" t="inlineStr">
         <is>
           <t>щр</t>
         </is>
       </c>
-      <c r="BB9" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BB9" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BC9" t="inlineStr">
         <is>
           <t>ыс</t>
         </is>
       </c>
-      <c r="BD9" t="inlineStr">
-        <is>
-          <t>0.000671</t>
-        </is>
+      <c r="BD9" t="n">
+        <v>0.0006711484782620905</v>
       </c>
       <c r="BE9" t="inlineStr">
         <is>
           <t>ьш</t>
         </is>
       </c>
-      <c r="BF9" t="inlineStr">
-        <is>
-          <t>0.000323</t>
-        </is>
+      <c r="BF9" t="n">
+        <v>0.0003229375523018427</v>
       </c>
       <c r="BG9" t="inlineStr">
         <is>
           <t xml:space="preserve">э </t>
         </is>
       </c>
-      <c r="BH9" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="BH9" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="BI9" t="inlineStr">
         <is>
           <t>юх</t>
         </is>
       </c>
-      <c r="BJ9" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="BJ9" t="n">
+        <v>6.739566308908021e-05</v>
       </c>
       <c r="BK9" t="inlineStr">
         <is>
           <t>ящ</t>
         </is>
       </c>
-      <c r="BL9" t="inlineStr">
-        <is>
-          <t>0.000388</t>
-        </is>
+      <c r="BL9" t="n">
+        <v>0.0003875250627622112</v>
       </c>
     </row>
     <row r="10">
@@ -3325,320 +2813,256 @@
           <t xml:space="preserve"> б</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0.006217</t>
-        </is>
+      <c r="B10" t="n">
+        <v>0.00621724991996765</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
           <t>ам</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.003176</t>
-        </is>
+      <c r="D10" t="n">
+        <v>0.003176020623072905</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>бя</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.000320</t>
-        </is>
+      <c r="F10" t="n">
+        <v>0.000320129399673131</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>вн</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0.000876</t>
-        </is>
+      <c r="H10" t="n">
+        <v>0.0008761436201580429</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>ге</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0.000432</t>
-        </is>
+      <c r="J10" t="n">
+        <v>0.0004324555048215981</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>др</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0.000915</t>
-        </is>
+      <c r="L10" t="n">
+        <v>0.0009154577569600063</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>ед</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>0.002901</t>
-        </is>
+      <c r="N10" t="n">
+        <v>0.002900821665459161</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
           <t>жо</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="P10" t="n">
+        <v>6.739566308908021e-05</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
           <t>зу</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.000435</t>
-        </is>
+      <c r="R10" t="n">
+        <v>0.0004352636574503098</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
           <t>из</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.002100</t>
-        </is>
+      <c r="T10" t="n">
+        <v>0.002100498166276334</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
           <t>йц</t>
         </is>
       </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0.000059</t>
-        </is>
+      <c r="V10" t="n">
+        <v>5.897120520294519e-05</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
           <t>кт</t>
         </is>
       </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0.000688</t>
-        </is>
+      <c r="X10" t="n">
+        <v>0.0006879973940343606</v>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
           <t>ля</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>0.001252</t>
-        </is>
+      <c r="Z10" t="n">
+        <v>0.001252436072405407</v>
       </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>мя</t>
         </is>
       </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>0.000489</t>
-        </is>
+      <c r="AB10" t="n">
+        <v>0.0004886185573958315</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
           <t>ня</t>
         </is>
       </c>
-      <c r="AD10" t="inlineStr">
-        <is>
-          <t>0.001443</t>
-        </is>
+      <c r="AD10" t="n">
+        <v>0.001443390451157801</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
           <t>од</t>
         </is>
       </c>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>0.004459</t>
-        </is>
+      <c r="AF10" t="n">
+        <v>0.004459346374394141</v>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
           <t>пы</t>
         </is>
       </c>
-      <c r="AH10" t="inlineStr">
-        <is>
-          <t>0.000362</t>
-        </is>
+      <c r="AH10" t="n">
+        <v>0.0003622516891038061</v>
       </c>
       <c r="AI10" t="inlineStr">
         <is>
           <t>рг</t>
         </is>
       </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>0.000974</t>
-        </is>
+      <c r="AJ10" t="n">
+        <v>0.0009744289621629515</v>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
           <t>си</t>
         </is>
       </c>
-      <c r="AL10" t="inlineStr">
-        <is>
-          <t>0.001772</t>
-        </is>
+      <c r="AL10" t="n">
+        <v>0.001771944308717067</v>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
           <t>ту</t>
         </is>
       </c>
-      <c r="AN10" t="inlineStr">
-        <is>
-          <t>0.001954</t>
-        </is>
+      <c r="AN10" t="n">
+        <v>0.001954474229583326</v>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
           <t>ук</t>
         </is>
       </c>
-      <c r="AP10" t="inlineStr">
-        <is>
-          <t>0.000972</t>
-        </is>
+      <c r="AP10" t="n">
+        <v>0.0009716208095342399</v>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
           <t>фь</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="AR10" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
           <t>хл</t>
         </is>
       </c>
-      <c r="AT10" t="inlineStr">
-        <is>
-          <t>0.000163</t>
-        </is>
+      <c r="AT10" t="n">
+        <v>0.0001628728524652772</v>
       </c>
       <c r="AU10" t="inlineStr">
         <is>
           <t>цр</t>
         </is>
       </c>
-      <c r="AV10" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="AV10" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="AW10" t="inlineStr">
         <is>
           <t>чь</t>
         </is>
       </c>
-      <c r="AX10" t="inlineStr">
-        <is>
-          <t>0.000270</t>
-        </is>
+      <c r="AX10" t="n">
+        <v>0.0002695826523563209</v>
       </c>
       <c r="AY10" t="inlineStr">
         <is>
           <t>шо</t>
         </is>
       </c>
-      <c r="AZ10" t="inlineStr">
-        <is>
-          <t>0.000253</t>
-        </is>
+      <c r="AZ10" t="n">
+        <v>0.0002527337365840508</v>
       </c>
       <c r="BA10" t="inlineStr">
         <is>
           <t>що</t>
         </is>
       </c>
-      <c r="BB10" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BB10" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BC10" t="inlineStr">
         <is>
           <t>ыт</t>
         </is>
       </c>
-      <c r="BD10" t="inlineStr">
-        <is>
-          <t>0.000553</t>
-        </is>
+      <c r="BD10" t="n">
+        <v>0.0005532060678562001</v>
       </c>
       <c r="BE10" t="inlineStr">
         <is>
           <t>ьт</t>
         </is>
       </c>
-      <c r="BF10" t="inlineStr">
-        <is>
-          <t>0.000256</t>
-        </is>
+      <c r="BF10" t="n">
+        <v>0.0002555418892127625</v>
       </c>
       <c r="BG10" t="inlineStr">
         <is>
           <t>эс</t>
         </is>
       </c>
-      <c r="BH10" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="BH10" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="BI10" t="inlineStr">
         <is>
           <t>юю</t>
         </is>
       </c>
-      <c r="BJ10" t="inlineStr">
-        <is>
-          <t>0.000051</t>
-        </is>
+      <c r="BJ10" t="n">
+        <v>5.054674731681016e-05</v>
       </c>
       <c r="BK10" t="inlineStr">
         <is>
           <t>ям</t>
         </is>
       </c>
-      <c r="BL10" t="inlineStr">
-        <is>
-          <t>0.000317</t>
-        </is>
+      <c r="BL10" t="n">
+        <v>0.0003173212470444193</v>
       </c>
     </row>
     <row r="11">
@@ -3647,260 +3071,208 @@
           <t xml:space="preserve"> м</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0.005903</t>
-        </is>
+      <c r="B11" t="n">
+        <v>0.005902736825551942</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>ав</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.002536</t>
-        </is>
+      <c r="D11" t="n">
+        <v>0.002535761823726643</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>бн</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.000312</t>
-        </is>
+      <c r="F11" t="n">
+        <v>0.000311704941786996</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>ву</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0.000632</t>
-        </is>
+      <c r="H11" t="n">
+        <v>0.0006318343414601271</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>гн</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>0.000402</t>
-        </is>
+      <c r="J11" t="n">
+        <v>0.0004015658259057696</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>дь</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>0.000604</t>
-        </is>
+      <c r="L11" t="n">
+        <v>0.0006037528151730103</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>ев</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>0.002129</t>
-        </is>
+      <c r="N11" t="n">
+        <v>0.00212857969256345</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
           <t>жл</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.000048</t>
-        </is>
+      <c r="P11" t="n">
+        <v>4.773859468809848e-05</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
           <t>зы</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.000427</t>
-        </is>
+      <c r="R11" t="n">
+        <v>0.0004268391995641747</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
           <t>ие</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.001632</t>
-        </is>
+      <c r="T11" t="n">
+        <v>0.001631536677281484</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
           <t>йм</t>
         </is>
       </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>0.000039</t>
-        </is>
+      <c r="V11" t="n">
+        <v>3.931413680196346e-05</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
           <t>кн</t>
         </is>
       </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>0.000682</t>
-        </is>
+      <c r="X11" t="n">
+        <v>0.0006823810887769372</v>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
           <t>лы</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>0.000806</t>
-        </is>
+      <c r="Z11" t="n">
+        <v>0.0008059398044402509</v>
       </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>мс</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>0.000253</t>
-        </is>
+      <c r="AB11" t="n">
+        <v>0.0002527337365840508</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
           <t>нь</t>
         </is>
       </c>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>0.000913</t>
-        </is>
+      <c r="AD11" t="n">
+        <v>0.0009126496043312946</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
           <t>ог</t>
         </is>
       </c>
-      <c r="AF11" t="inlineStr">
-        <is>
-          <t>0.004409</t>
-        </is>
+      <c r="AF11" t="n">
+        <v>0.004408799627077331</v>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
           <t>пн</t>
         </is>
       </c>
-      <c r="AH11" t="inlineStr">
-        <is>
-          <t>0.000250</t>
-        </is>
+      <c r="AH11" t="n">
+        <v>0.0002499255839553391</v>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
           <t>рн</t>
         </is>
       </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>0.000952</t>
-        </is>
+      <c r="AJ11" t="n">
+        <v>0.0009519637411332581</v>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
           <t>са</t>
         </is>
       </c>
-      <c r="AL11" t="inlineStr">
-        <is>
-          <t>0.001685</t>
-        </is>
+      <c r="AL11" t="n">
+        <v>0.001684891577227005</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
           <t>ты</t>
         </is>
       </c>
-      <c r="AN11" t="inlineStr">
-        <is>
-          <t>0.001443</t>
-        </is>
+      <c r="AN11" t="n">
+        <v>0.001443390451157801</v>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
           <t>ум</t>
         </is>
       </c>
-      <c r="AP11" t="inlineStr">
-        <is>
-          <t>0.000921</t>
-        </is>
+      <c r="AP11" t="n">
+        <v>0.0009210740622174297</v>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
           <t xml:space="preserve">ф </t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="AR11" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
           <t>хг</t>
         </is>
       </c>
-      <c r="AT11" t="inlineStr">
-        <is>
-          <t>0.000062</t>
-        </is>
+      <c r="AT11" t="n">
+        <v>6.177935783165686e-05</v>
       </c>
       <c r="AU11" t="inlineStr">
         <is>
           <t>цк</t>
         </is>
       </c>
-      <c r="AV11" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="AV11" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="AW11" t="inlineStr">
         <is>
           <t>чо</t>
         </is>
       </c>
-      <c r="AX11" t="inlineStr">
-        <is>
-          <t>0.000073</t>
-        </is>
+      <c r="AX11" t="n">
+        <v>7.301196834650356e-05</v>
       </c>
       <c r="AY11" t="inlineStr">
         <is>
           <t>шт</t>
         </is>
       </c>
-      <c r="AZ11" t="inlineStr">
-        <is>
-          <t>0.000098</t>
-        </is>
+      <c r="AZ11" t="n">
+        <v>9.828534200490864e-05</v>
       </c>
       <c r="BA11" t="inlineStr"/>
       <c r="BB11" t="inlineStr"/>
@@ -3909,50 +3281,40 @@
           <t>ыш</t>
         </is>
       </c>
-      <c r="BD11" t="inlineStr">
-        <is>
-          <t>0.000475</t>
-        </is>
+      <c r="BD11" t="n">
+        <v>0.0004745777942522732</v>
       </c>
       <c r="BE11" t="inlineStr">
         <is>
           <t>ьм</t>
         </is>
       </c>
-      <c r="BF11" t="inlineStr">
-        <is>
-          <t>0.000256</t>
-        </is>
+      <c r="BF11" t="n">
+        <v>0.0002555418892127625</v>
       </c>
       <c r="BG11" t="inlineStr">
         <is>
           <t>эф</t>
         </is>
       </c>
-      <c r="BH11" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="BH11" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="BI11" t="inlineStr">
         <is>
           <t>юм</t>
         </is>
       </c>
-      <c r="BJ11" t="inlineStr">
-        <is>
-          <t>0.000051</t>
-        </is>
+      <c r="BJ11" t="n">
+        <v>5.054674731681016e-05</v>
       </c>
       <c r="BK11" t="inlineStr">
         <is>
           <t>яз</t>
         </is>
       </c>
-      <c r="BL11" t="inlineStr">
-        <is>
-          <t>0.000242</t>
-        </is>
+      <c r="BL11" t="n">
+        <v>0.0002415011260692041</v>
       </c>
     </row>
     <row r="12">
@@ -3961,260 +3323,208 @@
           <t xml:space="preserve"> ч</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0.005204</t>
-        </is>
+      <c r="B12" t="n">
+        <v>0.005203506821002736</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>ад</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.002275</t>
-        </is>
+      <c r="D12" t="n">
+        <v>0.002274603629256457</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">б </t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.000202</t>
-        </is>
+      <c r="F12" t="n">
+        <v>0.0002021869892672406</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>вр</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>0.000607</t>
-        </is>
+      <c r="H12" t="n">
+        <v>0.0006065609678017219</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>гк</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="J12" t="n">
+        <v>6.739566308908021e-05</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
           <t>ды</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>0.000469</t>
-        </is>
+      <c r="L12" t="n">
+        <v>0.0004689614889948499</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>ей</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>0.001780</t>
-        </is>
+      <c r="N12" t="n">
+        <v>0.001780368766603202</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
           <t>жч</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="P12" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
           <t>зл</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.000323</t>
-        </is>
+      <c r="R12" t="n">
+        <v>0.0003229375523018427</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
           <t>ий</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.001626</t>
-        </is>
+      <c r="T12" t="n">
+        <v>0.00162592037202406</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
           <t>йл</t>
         </is>
       </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="V12" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
           <t>кв</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>0.000567</t>
-        </is>
+      <c r="X12" t="n">
+        <v>0.0005672468309997585</v>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
           <t>лю</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>0.000702</t>
-        </is>
+      <c r="Z12" t="n">
+        <v>0.0007020381571779189</v>
       </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>мл</t>
         </is>
       </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>0.000177</t>
-        </is>
+      <c r="AB12" t="n">
+        <v>0.0001769136156088356</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
           <t>нд</t>
         </is>
       </c>
-      <c r="AD12" t="inlineStr">
-        <is>
-          <t>0.000831</t>
-        </is>
+      <c r="AD12" t="n">
+        <v>0.000831213178098656</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
           <t>ой</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr">
-        <is>
-          <t>0.003842</t>
-        </is>
+      <c r="AF12" t="n">
+        <v>0.003841552796077573</v>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
           <t>пт</t>
         </is>
       </c>
-      <c r="AH12" t="inlineStr">
-        <is>
-          <t>0.000152</t>
-        </is>
+      <c r="AH12" t="n">
+        <v>0.0001516402419504305</v>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
           <t>рт</t>
         </is>
       </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>0.000913</t>
-        </is>
+      <c r="AJ12" t="n">
+        <v>0.0009126496043312946</v>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
           <t>сп</t>
         </is>
       </c>
-      <c r="AL12" t="inlineStr">
-        <is>
-          <t>0.001640</t>
-        </is>
+      <c r="AL12" t="n">
+        <v>0.001639961135167619</v>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
           <t>тн</t>
         </is>
       </c>
-      <c r="AN12" t="inlineStr">
-        <is>
-          <t>0.001283</t>
-        </is>
+      <c r="AN12" t="n">
+        <v>0.001283325751321236</v>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
           <t>уг</t>
         </is>
       </c>
-      <c r="AP12" t="inlineStr">
-        <is>
-          <t>0.000901</t>
-        </is>
+      <c r="AP12" t="n">
+        <v>0.0009014169938164479</v>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
           <t>фт</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="AR12" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
           <t>хс</t>
         </is>
       </c>
-      <c r="AT12" t="inlineStr">
-        <is>
-          <t>0.000056</t>
-        </is>
+      <c r="AT12" t="n">
+        <v>5.616305257423352e-05</v>
       </c>
       <c r="AU12" t="inlineStr">
         <is>
           <t>цл</t>
         </is>
       </c>
-      <c r="AV12" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AV12" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AW12" t="inlineStr">
         <is>
           <t>чр</t>
         </is>
       </c>
-      <c r="AX12" t="inlineStr">
-        <is>
-          <t>0.000056</t>
-        </is>
+      <c r="AX12" t="n">
+        <v>5.616305257423352e-05</v>
       </c>
       <c r="AY12" t="inlineStr">
         <is>
           <t xml:space="preserve">ш </t>
         </is>
       </c>
-      <c r="AZ12" t="inlineStr">
-        <is>
-          <t>0.000079</t>
-        </is>
+      <c r="AZ12" t="n">
+        <v>7.862827360392692e-05</v>
       </c>
       <c r="BA12" t="inlineStr"/>
       <c r="BB12" t="inlineStr"/>
@@ -4223,50 +3533,40 @@
           <t>ыб</t>
         </is>
       </c>
-      <c r="BD12" t="inlineStr">
-        <is>
-          <t>0.000278</t>
-        </is>
+      <c r="BD12" t="n">
+        <v>0.0002780071102424559</v>
       </c>
       <c r="BE12" t="inlineStr">
         <is>
           <t>ьц</t>
         </is>
       </c>
-      <c r="BF12" t="inlineStr">
-        <is>
-          <t>0.000129</t>
-        </is>
+      <c r="BF12" t="n">
+        <v>0.0001291750209207371</v>
       </c>
       <c r="BG12" t="inlineStr">
         <is>
           <t>эм</t>
         </is>
       </c>
-      <c r="BH12" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BH12" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BI12" t="inlineStr">
         <is>
           <t>юн</t>
         </is>
       </c>
-      <c r="BJ12" t="inlineStr">
-        <is>
-          <t>0.000045</t>
-        </is>
+      <c r="BJ12" t="n">
+        <v>4.493044205938681e-05</v>
       </c>
       <c r="BK12" t="inlineStr">
         <is>
           <t>як</t>
         </is>
       </c>
-      <c r="BL12" t="inlineStr">
-        <is>
-          <t>0.000199</t>
-        </is>
+      <c r="BL12" t="n">
+        <v>0.000199378836638529</v>
       </c>
     </row>
     <row r="13">
@@ -4275,260 +3575,208 @@
           <t xml:space="preserve"> д</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0.005192</t>
-        </is>
+      <c r="B13" t="n">
+        <v>0.005192274210487889</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
           <t>ая</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.002053</t>
-        </is>
+      <c r="D13" t="n">
+        <v>0.002052759571588235</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>бь</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.000180</t>
-        </is>
+      <c r="F13" t="n">
+        <v>0.0001797217682375472</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>вл</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>0.000556</t>
-        </is>
+      <c r="H13" t="n">
+        <v>0.0005560142204849118</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>гч</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>0.000042</t>
-        </is>
+      <c r="J13" t="n">
+        <v>4.212228943067513e-05</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
           <t>дл</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>0.000402</t>
-        </is>
+      <c r="L13" t="n">
+        <v>0.0004015658259057696</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>ек</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>0.001522</t>
-        </is>
+      <c r="N13" t="n">
+        <v>0.001522018724761728</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
           <t>жб</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="P13" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
           <t>зг</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.000306</t>
-        </is>
+      <c r="R13" t="n">
+        <v>0.0003060886365295726</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
           <t>ич</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.001615</t>
-        </is>
+      <c r="T13" t="n">
+        <v>0.001614687761509214</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
           <t>йо</t>
         </is>
       </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="V13" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
           <t>кс</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>0.000118</t>
-        </is>
+      <c r="X13" t="n">
+        <v>0.0001179424104058904</v>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
           <t>лн</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>0.000494</t>
-        </is>
+      <c r="Z13" t="n">
+        <v>0.0004942348626532549</v>
       </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>мп</t>
         </is>
       </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>0.000177</t>
-        </is>
+      <c r="AB13" t="n">
+        <v>0.0001769136156088356</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
           <t>нт</t>
         </is>
       </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>0.000826</t>
-        </is>
+      <c r="AD13" t="n">
+        <v>0.0008255968728412326</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
           <t>об</t>
         </is>
       </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>0.003067</t>
-        </is>
+      <c r="AF13" t="n">
+        <v>0.00306650267055315</v>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
           <t>пк</t>
         </is>
       </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>0.000101</t>
-        </is>
+      <c r="AH13" t="n">
+        <v>0.0001010934946336203</v>
       </c>
       <c r="AI13" t="inlineStr">
         <is>
           <t>рь</t>
         </is>
       </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>0.000612</t>
-        </is>
+      <c r="AJ13" t="n">
+        <v>0.0006121772730591453</v>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
           <t>св</t>
         </is>
       </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>0.001471</t>
-        </is>
+      <c r="AL13" t="n">
+        <v>0.001471471977444918</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
           <t>тс</t>
         </is>
       </c>
-      <c r="AN13" t="inlineStr">
-        <is>
-          <t>0.000764</t>
-        </is>
+      <c r="AN13" t="n">
+        <v>0.0007638175150095758</v>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
           <t>ух</t>
         </is>
       </c>
-      <c r="AP13" t="inlineStr">
-        <is>
-          <t>0.000834</t>
-        </is>
+      <c r="AP13" t="n">
+        <v>0.0008340213307273677</v>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
           <t>фс</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="AR13" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
           <t>хе</t>
         </is>
       </c>
-      <c r="AT13" t="inlineStr">
-        <is>
-          <t>0.000053</t>
-        </is>
+      <c r="AT13" t="n">
+        <v>5.335489994552184e-05</v>
       </c>
       <c r="AU13" t="inlineStr">
         <is>
           <t>цц</t>
         </is>
       </c>
-      <c r="AV13" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AV13" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AW13" t="inlineStr">
         <is>
           <t>чш</t>
         </is>
       </c>
-      <c r="AX13" t="inlineStr">
-        <is>
-          <t>0.000051</t>
-        </is>
+      <c r="AX13" t="n">
+        <v>5.054674731681016e-05</v>
       </c>
       <c r="AY13" t="inlineStr">
         <is>
           <t>шв</t>
         </is>
       </c>
-      <c r="AZ13" t="inlineStr">
-        <is>
-          <t>0.000076</t>
-        </is>
+      <c r="AZ13" t="n">
+        <v>7.582012097521524e-05</v>
       </c>
       <c r="BA13" t="inlineStr"/>
       <c r="BB13" t="inlineStr"/>
@@ -4537,50 +3785,40 @@
           <t>ыр</t>
         </is>
       </c>
-      <c r="BD13" t="inlineStr">
-        <is>
-          <t>0.000250</t>
-        </is>
+      <c r="BD13" t="n">
+        <v>0.0002499255839553391</v>
       </c>
       <c r="BE13" t="inlineStr">
         <is>
           <t>ьз</t>
         </is>
       </c>
-      <c r="BF13" t="inlineStr">
-        <is>
-          <t>0.000121</t>
-        </is>
+      <c r="BF13" t="n">
+        <v>0.0001207505630346021</v>
       </c>
       <c r="BG13" t="inlineStr">
         <is>
           <t>эг</t>
         </is>
       </c>
-      <c r="BH13" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BH13" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BI13" t="inlineStr">
         <is>
           <t>юк</t>
         </is>
       </c>
-      <c r="BJ13" t="inlineStr">
-        <is>
-          <t>0.000039</t>
-        </is>
+      <c r="BJ13" t="n">
+        <v>3.931413680196346e-05</v>
       </c>
       <c r="BK13" t="inlineStr">
         <is>
           <t>яч</t>
         </is>
       </c>
-      <c r="BL13" t="inlineStr">
-        <is>
-          <t>0.000163</t>
-        </is>
+      <c r="BL13" t="n">
+        <v>0.0001628728524652772</v>
       </c>
     </row>
     <row r="14">
@@ -4589,260 +3827,208 @@
           <t>  </t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0.004580</t>
-        </is>
+      <c r="B14" t="n">
+        <v>0.004580096937428743</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
           <t>ах</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.001140</t>
-        </is>
+      <c r="D14" t="n">
+        <v>0.00114010996725694</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>бк</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0.000149</t>
-        </is>
+      <c r="F14" t="n">
+        <v>0.0001488320893217188</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>вь</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>0.000511</t>
-        </is>
+      <c r="H14" t="n">
+        <v>0.000511083778425525</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>гт</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="J14" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
           <t>дя</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0.000396</t>
-        </is>
+      <c r="L14" t="n">
+        <v>0.0003959495206483463</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>ез</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>0.001398</t>
-        </is>
+      <c r="N14" t="n">
+        <v>0.001398460009098415</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
           <t>жь</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="P14" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
           <t>зр</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.000281</t>
-        </is>
+      <c r="R14" t="n">
+        <v>0.0002808152628711676</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
           <t>ид</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.001438</t>
-        </is>
+      <c r="T14" t="n">
+        <v>0.001437774145900378</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
           <t>йв</t>
         </is>
       </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="V14" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
           <t>кж</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>0.000053</t>
-        </is>
+      <c r="X14" t="n">
+        <v>5.335489994552184e-05</v>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
           <t>лл</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>0.000432</t>
-        </is>
+      <c r="Z14" t="n">
+        <v>0.0004324555048215981</v>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>мк</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>0.000112</t>
-        </is>
+      <c r="AB14" t="n">
+        <v>0.000112326105148467</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
           <t>нс</t>
         </is>
       </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>0.000556</t>
-        </is>
+      <c r="AD14" t="n">
+        <v>0.0005560142204849118</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
           <t>ок</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>0.002668</t>
-        </is>
+      <c r="AF14" t="n">
+        <v>0.002667744997276092</v>
       </c>
       <c r="AG14" t="inlineStr">
         <is>
           <t>пь</t>
         </is>
       </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>0.000076</t>
-        </is>
+      <c r="AH14" t="n">
+        <v>7.582012097521524e-05</v>
       </c>
       <c r="AI14" t="inlineStr">
         <is>
           <t>рв</t>
         </is>
       </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>0.000525</t>
-        </is>
+      <c r="AJ14" t="n">
+        <v>0.0005251245415690834</v>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
           <t>сс</t>
         </is>
       </c>
-      <c r="AL14" t="inlineStr">
-        <is>
-          <t>0.000935</t>
-        </is>
+      <c r="AL14" t="n">
+        <v>0.000935114825360988</v>
       </c>
       <c r="AM14" t="inlineStr">
         <is>
           <t>тк</t>
         </is>
       </c>
-      <c r="AN14" t="inlineStr">
-        <is>
-          <t>0.000730</t>
-        </is>
+      <c r="AN14" t="n">
+        <v>0.0007301196834650356</v>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
           <t>уч</t>
         </is>
       </c>
-      <c r="AP14" t="inlineStr">
-        <is>
-          <t>0.000719</t>
-        </is>
+      <c r="AP14" t="n">
+        <v>0.0007188870729501889</v>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
           <t>фф</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AR14" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
           <t>хм</t>
         </is>
       </c>
-      <c r="AT14" t="inlineStr">
-        <is>
-          <t>0.000053</t>
-        </is>
+      <c r="AT14" t="n">
+        <v>5.335489994552184e-05</v>
       </c>
       <c r="AU14" t="inlineStr">
         <is>
           <t>цч</t>
         </is>
       </c>
-      <c r="AV14" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AV14" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AW14" t="inlineStr">
         <is>
           <t>чл</t>
         </is>
       </c>
-      <c r="AX14" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="AX14" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="AY14" t="inlineStr">
         <is>
           <t>шп</t>
         </is>
       </c>
-      <c r="AZ14" t="inlineStr">
-        <is>
-          <t>0.000039</t>
-        </is>
+      <c r="AZ14" t="n">
+        <v>3.931413680196346e-05</v>
       </c>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
@@ -4851,20 +4037,16 @@
           <t>ык</t>
         </is>
       </c>
-      <c r="BD14" t="inlineStr">
-        <is>
-          <t>0.000205</t>
-        </is>
+      <c r="BD14" t="n">
+        <v>0.0002049951418959523</v>
       </c>
       <c r="BE14" t="inlineStr">
         <is>
           <t>ьд</t>
         </is>
       </c>
-      <c r="BF14" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="BF14" t="n">
+        <v>8.986088411877362e-05</v>
       </c>
       <c r="BG14" t="inlineStr"/>
       <c r="BH14" t="inlineStr"/>
@@ -4873,20 +4055,16 @@
           <t>юр</t>
         </is>
       </c>
-      <c r="BJ14" t="inlineStr">
-        <is>
-          <t>0.000039</t>
-        </is>
+      <c r="BJ14" t="n">
+        <v>3.931413680196346e-05</v>
       </c>
       <c r="BK14" t="inlineStr">
         <is>
           <t>ях</t>
         </is>
       </c>
-      <c r="BL14" t="inlineStr">
-        <is>
-          <t>0.000160</t>
-        </is>
+      <c r="BL14" t="n">
+        <v>0.0001600646998365655</v>
       </c>
     </row>
     <row r="15">
@@ -4895,260 +4073,208 @@
           <t xml:space="preserve"> з</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0.004507</t>
-        </is>
+      <c r="B15" t="n">
+        <v>0.00450708496908224</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
           <t>аж</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.001087</t>
-        </is>
+      <c r="D15" t="n">
+        <v>0.001086755067311419</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>бщ</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0.000101</t>
-        </is>
+      <c r="F15" t="n">
+        <v>0.0001010934946336203</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>вз</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>0.000413</t>
-        </is>
+      <c r="H15" t="n">
+        <v>0.0004127984364206163</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>гм</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="J15" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
           <t>дс</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>0.000351</t>
-        </is>
+      <c r="L15" t="n">
+        <v>0.0003510190785889594</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>ее</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>0.001250</t>
-        </is>
+      <c r="N15" t="n">
+        <v>0.001249627919776696</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
           <t>жг</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="P15" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
           <t>зм</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.000256</t>
-        </is>
+      <c r="R15" t="n">
+        <v>0.0002555418892127625</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
           <t>их</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.001421</t>
-        </is>
+      <c r="T15" t="n">
+        <v>0.001420925230128108</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
           <t>йя</t>
         </is>
       </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="V15" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
           <t>кз</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="X15" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
           <t>лк</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>0.000416</t>
-        </is>
+      <c r="Z15" t="n">
+        <v>0.000415606589049328</v>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>мр</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>0.000110</t>
-        </is>
+      <c r="AB15" t="n">
+        <v>0.0001095179525197554</v>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
           <t>нц</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>0.000289</t>
-        </is>
+      <c r="AD15" t="n">
+        <v>0.0002892397207573026</v>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
           <t>оч</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>0.001696</t>
-        </is>
+      <c r="AF15" t="n">
+        <v>0.001696124187741852</v>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
           <t>пп</t>
         </is>
       </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="AH15" t="n">
+        <v>7.020381571779189e-05</v>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
           <t>рш</t>
         </is>
       </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>0.000449</t>
-        </is>
+      <c r="AJ15" t="n">
+        <v>0.0004493044205938681</v>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
           <t>сн</t>
         </is>
       </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>0.000834</t>
-        </is>
+      <c r="AL15" t="n">
+        <v>0.0008340213307273677</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
           <t>тя</t>
         </is>
       </c>
-      <c r="AN15" t="inlineStr">
-        <is>
-          <t>0.000446</t>
-        </is>
+      <c r="AN15" t="n">
+        <v>0.0004464962679651565</v>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
           <t>ув</t>
         </is>
       </c>
-      <c r="AP15" t="inlineStr">
-        <is>
-          <t>0.000699</t>
-        </is>
+      <c r="AP15" t="n">
+        <v>0.0006992300045492073</v>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
           <t>фн</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AR15" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
           <t>хт</t>
         </is>
       </c>
-      <c r="AT15" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="AT15" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="AU15" t="inlineStr">
         <is>
           <t>цм</t>
         </is>
       </c>
-      <c r="AV15" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AV15" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AW15" t="inlineStr">
         <is>
           <t>чм</t>
         </is>
       </c>
-      <c r="AX15" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="AX15" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="AY15" t="inlineStr">
         <is>
           <t>шм</t>
         </is>
       </c>
-      <c r="AZ15" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="AZ15" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="BA15" t="inlineStr"/>
       <c r="BB15" t="inlineStr"/>
@@ -5157,20 +4283,16 @@
           <t>ын</t>
         </is>
       </c>
-      <c r="BD15" t="inlineStr">
-        <is>
-          <t>0.000174</t>
-        </is>
+      <c r="BD15" t="n">
+        <v>0.0001741054629801239</v>
       </c>
       <c r="BE15" t="inlineStr">
         <is>
           <t>ьи</t>
         </is>
       </c>
-      <c r="BF15" t="inlineStr">
-        <is>
-          <t>0.000079</t>
-        </is>
+      <c r="BF15" t="n">
+        <v>7.862827360392692e-05</v>
       </c>
       <c r="BG15" t="inlineStr"/>
       <c r="BH15" t="inlineStr"/>
@@ -5179,20 +4301,16 @@
           <t>юл</t>
         </is>
       </c>
-      <c r="BJ15" t="inlineStr">
-        <is>
-          <t>0.000037</t>
-        </is>
+      <c r="BJ15" t="n">
+        <v>3.650598417325178e-05</v>
       </c>
       <c r="BK15" t="inlineStr">
         <is>
           <t>яю</t>
         </is>
       </c>
-      <c r="BL15" t="inlineStr">
-        <is>
-          <t>0.000135</t>
-        </is>
+      <c r="BL15" t="n">
+        <v>0.0001347913261781604</v>
       </c>
     </row>
     <row r="16">
@@ -5201,230 +4319,184 @@
           <t xml:space="preserve"> г</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>0.004316</t>
-        </is>
+      <c r="B16" t="n">
+        <v>0.004316130590329845</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>ае</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.001081</t>
-        </is>
+      <c r="D16" t="n">
+        <v>0.001081138762053995</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>бс</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.000079</t>
-        </is>
+      <c r="F16" t="n">
+        <v>7.862827360392692e-05</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>вт</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>0.000300</t>
-        </is>
+      <c r="H16" t="n">
+        <v>0.0003004723312721493</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>гс</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="J16" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
           <t>дк</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>0.000309</t>
-        </is>
+      <c r="L16" t="n">
+        <v>0.0003088967891582843</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>еп</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>0.001174</t>
-        </is>
+      <c r="N16" t="n">
+        <v>0.00117380779880148</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
           <t>жс</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="P16" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
           <t>зя</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>0.000188</t>
-        </is>
+      <c r="R16" t="n">
+        <v>0.0001881462261236823</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
           <t>ир</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>0.001160</t>
-        </is>
+      <c r="T16" t="n">
+        <v>0.001159767035657922</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
           <t>йб</t>
         </is>
       </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="V16" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
           <t>кц</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="X16" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
           <t>лж</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>0.000225</t>
-        </is>
+      <c r="Z16" t="n">
+        <v>0.0002246522102969341</v>
       </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>мв</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>0.000087</t>
-        </is>
+      <c r="AB16" t="n">
+        <v>8.705273149006194e-05</v>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
           <t>нк</t>
         </is>
       </c>
-      <c r="AD16" t="inlineStr">
-        <is>
-          <t>0.000270</t>
-        </is>
+      <c r="AD16" t="n">
+        <v>0.0002695826523563209</v>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
           <t>ож</t>
         </is>
       </c>
-      <c r="AF16" t="inlineStr">
-        <is>
-          <t>0.001640</t>
-        </is>
+      <c r="AF16" t="n">
+        <v>0.001639961135167619</v>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
           <t xml:space="preserve">п </t>
         </is>
       </c>
-      <c r="AH16" t="inlineStr">
-        <is>
-          <t>0.000048</t>
-        </is>
+      <c r="AH16" t="n">
+        <v>4.773859468809848e-05</v>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
           <t>рк</t>
         </is>
       </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>0.000410</t>
-        </is>
+      <c r="AJ16" t="n">
+        <v>0.0004099902837919046</v>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
           <t>су</t>
         </is>
       </c>
-      <c r="AL16" t="inlineStr">
-        <is>
-          <t>0.000769</t>
-        </is>
+      <c r="AL16" t="n">
+        <v>0.0007694338202669991</v>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
           <t>тч</t>
         </is>
       </c>
-      <c r="AN16" t="inlineStr">
-        <is>
-          <t>0.000393</t>
-        </is>
+      <c r="AN16" t="n">
+        <v>0.0003931413680196346</v>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
           <t>уб</t>
         </is>
       </c>
-      <c r="AP16" t="inlineStr">
-        <is>
-          <t>0.000666</t>
-        </is>
+      <c r="AP16" t="n">
+        <v>0.0006655321730046672</v>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
           <t>фб</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AR16" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
           <t>хш</t>
         </is>
       </c>
-      <c r="AT16" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="AT16" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="AU16" t="inlineStr"/>
       <c r="AV16" t="inlineStr"/>
@@ -5433,20 +4505,16 @@
           <t>чп</t>
         </is>
       </c>
-      <c r="AX16" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AX16" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AY16" t="inlineStr">
         <is>
           <t>шр</t>
         </is>
       </c>
-      <c r="AZ16" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AZ16" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="inlineStr"/>
@@ -5455,20 +4523,16 @@
           <t>ыч</t>
         </is>
       </c>
-      <c r="BD16" t="inlineStr">
-        <is>
-          <t>0.000168</t>
-        </is>
+      <c r="BD16" t="n">
+        <v>0.0001684891577227005</v>
       </c>
       <c r="BE16" t="inlineStr">
         <is>
           <t>ьг</t>
         </is>
       </c>
-      <c r="BF16" t="inlineStr">
-        <is>
-          <t>0.000076</t>
-        </is>
+      <c r="BF16" t="n">
+        <v>7.582012097521524e-05</v>
       </c>
       <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="inlineStr"/>
@@ -5477,20 +4541,16 @@
           <t>юш</t>
         </is>
       </c>
-      <c r="BJ16" t="inlineStr">
-        <is>
-          <t>0.000028</t>
-        </is>
+      <c r="BJ16" t="n">
+        <v>2.808152628711676e-05</v>
       </c>
       <c r="BK16" t="inlineStr">
         <is>
           <t>яг</t>
         </is>
       </c>
-      <c r="BL16" t="inlineStr">
-        <is>
-          <t>0.000126</t>
-        </is>
+      <c r="BL16" t="n">
+        <v>0.0001263668682920254</v>
       </c>
     </row>
     <row r="17">
@@ -5499,210 +4559,168 @@
           <t xml:space="preserve"> у</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.004249</t>
-        </is>
+      <c r="B17" t="n">
+        <v>0.004248734927240766</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>ач</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.001022</t>
-        </is>
+      <c r="D17" t="n">
+        <v>0.00102216755685105</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>бм</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.000042</t>
-        </is>
+      <c r="F17" t="n">
+        <v>4.212228943067513e-05</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>вя</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>0.000284</t>
-        </is>
+      <c r="H17" t="n">
+        <v>0.0002836234154998792</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>гп</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="J17" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
           <t>дт</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>0.000222</t>
-        </is>
+      <c r="L17" t="n">
+        <v>0.0002218440576682224</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>еч</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>0.001059</t>
-        </is>
+      <c r="N17" t="n">
+        <v>0.001058673541024302</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
           <t>жж</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="P17" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
           <t>зб</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>0.000163</t>
-        </is>
+      <c r="R17" t="n">
+        <v>0.0001628728524652772</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
           <t>ия</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>0.001028</t>
-        </is>
+      <c r="T17" t="n">
+        <v>0.001027783862108473</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
           <t>йи</t>
         </is>
       </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="V17" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
           <t>кк</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="X17" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
           <t>лт</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>0.000216</t>
-        </is>
+      <c r="Z17" t="n">
+        <v>0.000216227752410799</v>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>мм</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>0.000081</t>
-        </is>
+      <c r="AB17" t="n">
+        <v>8.143642623263859e-05</v>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
           <t>нч</t>
         </is>
       </c>
-      <c r="AD17" t="inlineStr">
-        <is>
-          <t>0.000180</t>
-        </is>
+      <c r="AD17" t="n">
+        <v>0.0001797217682375472</v>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
           <t>ое</t>
         </is>
       </c>
-      <c r="AF17" t="inlineStr">
-        <is>
-          <t>0.001497</t>
-        </is>
+      <c r="AF17" t="n">
+        <v>0.001496745351103323</v>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
           <t>пю</t>
         </is>
       </c>
-      <c r="AH17" t="inlineStr">
-        <is>
-          <t>0.000037</t>
-        </is>
+      <c r="AH17" t="n">
+        <v>3.650598417325178e-05</v>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
           <t>рл</t>
         </is>
       </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>0.000286</t>
-        </is>
+      <c r="AJ17" t="n">
+        <v>0.0002864315681285909</v>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
           <t>см</t>
         </is>
       </c>
-      <c r="AL17" t="inlineStr">
-        <is>
-          <t>0.000593</t>
-        </is>
+      <c r="AL17" t="n">
+        <v>0.0005925202046581636</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
           <t>тл</t>
         </is>
       </c>
-      <c r="AN17" t="inlineStr">
-        <is>
-          <t>0.000216</t>
-        </is>
+      <c r="AN17" t="n">
+        <v>0.000216227752410799</v>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
           <t>уш</t>
         </is>
       </c>
-      <c r="AP17" t="inlineStr">
-        <is>
-          <t>0.000654</t>
-        </is>
+      <c r="AP17" t="n">
+        <v>0.0006542995624898205</v>
       </c>
       <c r="AQ17" t="inlineStr"/>
       <c r="AR17" t="inlineStr"/>
@@ -5711,10 +4729,8 @@
           <t>хь</t>
         </is>
       </c>
-      <c r="AT17" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="AT17" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="AU17" t="inlineStr"/>
       <c r="AV17" t="inlineStr"/>
@@ -5723,10 +4739,8 @@
           <t>чб</t>
         </is>
       </c>
-      <c r="AX17" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AX17" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AY17" t="inlineStr"/>
       <c r="AZ17" t="inlineStr"/>
@@ -5737,20 +4751,16 @@
           <t>ып</t>
         </is>
       </c>
-      <c r="BD17" t="inlineStr">
-        <is>
-          <t>0.000140</t>
-        </is>
+      <c r="BD17" t="n">
+        <v>0.0001404076314355838</v>
       </c>
       <c r="BE17" t="inlineStr">
         <is>
           <t>ьч</t>
         </is>
       </c>
-      <c r="BF17" t="inlineStr">
-        <is>
-          <t>0.000059</t>
-        </is>
+      <c r="BF17" t="n">
+        <v>5.897120520294519e-05</v>
       </c>
       <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="inlineStr"/>
@@ -5759,20 +4769,16 @@
           <t>юц</t>
         </is>
       </c>
-      <c r="BJ17" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="BJ17" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="BK17" t="inlineStr">
         <is>
           <t>яя</t>
         </is>
       </c>
-      <c r="BL17" t="inlineStr">
-        <is>
-          <t>0.000124</t>
-        </is>
+      <c r="BL17" t="n">
+        <v>0.0001235587156633137</v>
       </c>
     </row>
     <row r="18">
@@ -5781,210 +4787,168 @@
           <t xml:space="preserve"> р</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0.003881</t>
-        </is>
+      <c r="B18" t="n">
+        <v>0.003880866932879536</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
           <t>аг</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.000952</t>
-        </is>
+      <c r="D18" t="n">
+        <v>0.0009519637411332581</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>бх</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>0.000037</t>
-        </is>
+      <c r="F18" t="n">
+        <v>3.650598417325178e-05</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>вд</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>0.000261</t>
-        </is>
+      <c r="H18" t="n">
+        <v>0.0002611581944701858</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>гш</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="J18" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
           <t>дц</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0.000191</t>
-        </is>
+      <c r="L18" t="n">
+        <v>0.0001909543787523939</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>еб</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0.000904</t>
-        </is>
+      <c r="N18" t="n">
+        <v>0.0009042251464451596</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
           <t>жм</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="P18" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
           <t>зь</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0.000152</t>
-        </is>
+      <c r="R18" t="n">
+        <v>0.0001516402419504305</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
           <t>иц</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.000960</t>
-        </is>
+      <c r="T18" t="n">
+        <v>0.0009603881990193931</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
           <t>йп</t>
         </is>
       </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="V18" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
           <t>кш</t>
         </is>
       </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="X18" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
           <t>лч</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>0.000126</t>
-        </is>
+      <c r="Z18" t="n">
+        <v>0.0001263668682920254</v>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>мг</t>
         </is>
       </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>0.000079</t>
-        </is>
+      <c r="AB18" t="n">
+        <v>7.862827360392692e-05</v>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
           <t>ню</t>
         </is>
       </c>
-      <c r="AD18" t="inlineStr">
-        <is>
-          <t>0.000171</t>
-        </is>
+      <c r="AD18" t="n">
+        <v>0.0001712973103514122</v>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
           <t>оз</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr">
-        <is>
-          <t>0.001466</t>
-        </is>
+      <c r="AF18" t="n">
+        <v>0.001465855672187495</v>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
           <t>пс</t>
         </is>
       </c>
-      <c r="AH18" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="AH18" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="AI18" t="inlineStr">
         <is>
           <t>рю</t>
         </is>
       </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>0.000236</t>
-        </is>
+      <c r="AJ18" t="n">
+        <v>0.0002358848208117808</v>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
           <t>сы</t>
         </is>
       </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>0.000340</t>
-        </is>
+      <c r="AL18" t="n">
+        <v>0.0003397864680741127</v>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
           <t>тд</t>
         </is>
       </c>
-      <c r="AN18" t="inlineStr">
-        <is>
-          <t>0.000174</t>
-        </is>
+      <c r="AN18" t="n">
+        <v>0.0001741054629801239</v>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
           <t>уп</t>
         </is>
       </c>
-      <c r="AP18" t="inlineStr">
-        <is>
-          <t>0.000643</t>
-        </is>
+      <c r="AP18" t="n">
+        <v>0.0006430669519749738</v>
       </c>
       <c r="AQ18" t="inlineStr"/>
       <c r="AR18" t="inlineStr"/>
@@ -5993,10 +4957,8 @@
           <t>хк</t>
         </is>
       </c>
-      <c r="AT18" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="AT18" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="AU18" t="inlineStr"/>
       <c r="AV18" t="inlineStr"/>
@@ -6005,10 +4967,8 @@
           <t>чс</t>
         </is>
       </c>
-      <c r="AX18" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AX18" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AY18" t="inlineStr"/>
       <c r="AZ18" t="inlineStr"/>
@@ -6019,20 +4979,16 @@
           <t>ыг</t>
         </is>
       </c>
-      <c r="BD18" t="inlineStr">
-        <is>
-          <t>0.000118</t>
-        </is>
+      <c r="BD18" t="n">
+        <v>0.0001179424104058904</v>
       </c>
       <c r="BE18" t="inlineStr">
         <is>
           <t>ьв</t>
         </is>
       </c>
-      <c r="BF18" t="inlineStr">
-        <is>
-          <t>0.000053</t>
-        </is>
+      <c r="BF18" t="n">
+        <v>5.335489994552184e-05</v>
       </c>
       <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="inlineStr"/>
@@ -6041,20 +4997,16 @@
           <t>юв</t>
         </is>
       </c>
-      <c r="BJ18" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="BJ18" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="BK18" t="inlineStr">
         <is>
           <t>яж</t>
         </is>
       </c>
-      <c r="BL18" t="inlineStr">
-        <is>
-          <t>0.000118</t>
-        </is>
+      <c r="BL18" t="n">
+        <v>0.0001179424104058904</v>
       </c>
     </row>
     <row r="19">
@@ -6063,40 +5015,32 @@
           <t xml:space="preserve"> е</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.002805</t>
-        </is>
+      <c r="B19" t="n">
+        <v>0.002805344476082964</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>ап</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.000899</t>
-        </is>
+      <c r="D19" t="n">
+        <v>0.0008986088411877363</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>бг</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.000028</t>
-        </is>
+      <c r="F19" t="n">
+        <v>2.808152628711676e-05</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>вк</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>0.000247</t>
-        </is>
+      <c r="H19" t="n">
+        <v>0.0002471174313266274</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -6105,160 +5049,128 @@
           <t>дш</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>0.000168</t>
-        </is>
+      <c r="L19" t="n">
+        <v>0.0001684891577227005</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>еж</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0.000750</t>
-        </is>
+      <c r="N19" t="n">
+        <v>0.0007497767518660174</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
           <t>жр</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="P19" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
           <t>зк</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.000112</t>
-        </is>
+      <c r="R19" t="n">
+        <v>0.000112326105148467</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
           <t>иб</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.000517</t>
-        </is>
+      <c r="T19" t="n">
+        <v>0.0005167000836829483</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
           <t>йщ</t>
         </is>
       </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="V19" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
           <t>км</t>
         </is>
       </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="X19" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
           <t>лг</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>0.000121</t>
-        </is>
+      <c r="Z19" t="n">
+        <v>0.0001207505630346021</v>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>мт</t>
         </is>
       </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="AB19" t="n">
+        <v>6.739566308908021e-05</v>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
           <t>нщ</t>
         </is>
       </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>0.000168</t>
-        </is>
+      <c r="AD19" t="n">
+        <v>0.0001684891577227005</v>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
           <t>оп</t>
         </is>
       </c>
-      <c r="AF19" t="inlineStr">
-        <is>
-          <t>0.001401</t>
-        </is>
+      <c r="AF19" t="n">
+        <v>0.001401268161727126</v>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
           <t>пч</t>
         </is>
       </c>
-      <c r="AH19" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="AH19" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="AI19" t="inlineStr">
         <is>
           <t>рм</t>
         </is>
       </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>0.000227</t>
-        </is>
+      <c r="AJ19" t="n">
+        <v>0.0002274603629256457</v>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
           <t>сч</t>
         </is>
       </c>
-      <c r="AL19" t="inlineStr">
-        <is>
-          <t>0.000298</t>
-        </is>
+      <c r="AL19" t="n">
+        <v>0.0002976641786434376</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
           <t>тп</t>
         </is>
       </c>
-      <c r="AN19" t="inlineStr">
-        <is>
-          <t>0.000081</t>
-        </is>
+      <c r="AN19" t="n">
+        <v>8.143642623263859e-05</v>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
           <t>ун</t>
         </is>
       </c>
-      <c r="AP19" t="inlineStr">
-        <is>
-          <t>0.000531</t>
-        </is>
+      <c r="AP19" t="n">
+        <v>0.0005307408468265067</v>
       </c>
       <c r="AQ19" t="inlineStr"/>
       <c r="AR19" t="inlineStr"/>
@@ -6267,10 +5179,8 @@
           <t>хп</t>
         </is>
       </c>
-      <c r="AT19" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AT19" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AU19" t="inlineStr"/>
       <c r="AV19" t="inlineStr"/>
@@ -6279,10 +5189,8 @@
           <t>чз</t>
         </is>
       </c>
-      <c r="AX19" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AX19" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AY19" t="inlineStr"/>
       <c r="AZ19" t="inlineStr"/>
@@ -6293,20 +5201,16 @@
           <t>ыд</t>
         </is>
       </c>
-      <c r="BD19" t="inlineStr">
-        <is>
-          <t>0.000087</t>
-        </is>
+      <c r="BD19" t="n">
+        <v>8.705273149006194e-05</v>
       </c>
       <c r="BE19" t="inlineStr">
         <is>
           <t>ьб</t>
         </is>
       </c>
-      <c r="BF19" t="inlineStr">
-        <is>
-          <t>0.000039</t>
-        </is>
+      <c r="BF19" t="n">
+        <v>3.931413680196346e-05</v>
       </c>
       <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="inlineStr"/>
@@ -6315,20 +5219,16 @@
           <t>юг</t>
         </is>
       </c>
-      <c r="BJ19" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="BJ19" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="BK19" t="inlineStr">
         <is>
           <t>яр</t>
         </is>
       </c>
-      <c r="BL19" t="inlineStr">
-        <is>
-          <t>0.000101</t>
-        </is>
+      <c r="BL19" t="n">
+        <v>0.0001010934946336203</v>
       </c>
     </row>
     <row r="20">
@@ -6337,40 +5237,32 @@
           <t xml:space="preserve"> л</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0.002730</t>
-        </is>
+      <c r="B20" t="n">
+        <v>0.002729524355107749</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>аш</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.000814</t>
-        </is>
+      <c r="D20" t="n">
+        <v>0.0008143642623263859</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>бю</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="F20" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>вп</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>0.000222</t>
-        </is>
+      <c r="H20" t="n">
+        <v>0.0002218440576682224</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -6379,20 +5271,16 @@
           <t>дм</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0.000132</t>
-        </is>
+      <c r="L20" t="n">
+        <v>0.0001319831735494488</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>еш</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0.000666</t>
-        </is>
+      <c r="N20" t="n">
+        <v>0.0006655321730046672</v>
       </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
@@ -6401,130 +5289,104 @@
           <t>зз</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>0.000081</t>
-        </is>
+      <c r="R20" t="n">
+        <v>8.143642623263859e-05</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
           <t>ии</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t>0.000475</t>
-        </is>
+      <c r="T20" t="n">
+        <v>0.0004745777942522732</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
           <t>йг</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="V20" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
           <t>кг</t>
         </is>
       </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="X20" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
           <t>лб</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>0.000079</t>
-        </is>
+      <c r="Z20" t="n">
+        <v>7.862827360392692e-05</v>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>мь</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>0.000042</t>
-        </is>
+      <c r="AB20" t="n">
+        <v>4.212228943067513e-05</v>
       </c>
       <c r="AC20" t="inlineStr">
         <is>
           <t>нг</t>
         </is>
       </c>
-      <c r="AD20" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="AD20" t="n">
+        <v>8.986088411877362e-05</v>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
           <t>ош</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr">
-        <is>
-          <t>0.000764</t>
-        </is>
+      <c r="AF20" t="n">
+        <v>0.0007638175150095758</v>
       </c>
       <c r="AG20" t="inlineStr">
         <is>
           <t>пш</t>
         </is>
       </c>
-      <c r="AH20" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="AH20" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
           <t>рд</t>
         </is>
       </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>0.000225</t>
-        </is>
+      <c r="AJ20" t="n">
+        <v>0.0002246522102969341</v>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
           <t>сд</t>
         </is>
       </c>
-      <c r="AL20" t="inlineStr">
-        <is>
-          <t>0.000247</t>
-        </is>
+      <c r="AL20" t="n">
+        <v>0.0002471174313266274</v>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
           <t>тю</t>
         </is>
       </c>
-      <c r="AN20" t="inlineStr">
-        <is>
-          <t>0.000076</t>
-        </is>
+      <c r="AN20" t="n">
+        <v>7.582012097521524e-05</v>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
           <t>уз</t>
         </is>
       </c>
-      <c r="AP20" t="inlineStr">
-        <is>
-          <t>0.000315</t>
-        </is>
+      <c r="AP20" t="n">
+        <v>0.0003145130944157077</v>
       </c>
       <c r="AQ20" t="inlineStr"/>
       <c r="AR20" t="inlineStr"/>
@@ -6533,10 +5395,8 @@
           <t>хэ</t>
         </is>
       </c>
-      <c r="AT20" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AT20" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AU20" t="inlineStr"/>
       <c r="AV20" t="inlineStr"/>
@@ -6545,10 +5405,8 @@
           <t>чв</t>
         </is>
       </c>
-      <c r="AX20" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AX20" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AY20" t="inlineStr"/>
       <c r="AZ20" t="inlineStr"/>
@@ -6559,20 +5417,16 @@
           <t>ыж</t>
         </is>
       </c>
-      <c r="BD20" t="inlineStr">
-        <is>
-          <t>0.000073</t>
-        </is>
+      <c r="BD20" t="n">
+        <v>7.301196834650356e-05</v>
       </c>
       <c r="BE20" t="inlineStr">
         <is>
           <t>ьп</t>
         </is>
       </c>
-      <c r="BF20" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="BF20" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="BG20" t="inlineStr"/>
       <c r="BH20" t="inlineStr"/>
@@ -6581,20 +5435,16 @@
           <t>юз</t>
         </is>
       </c>
-      <c r="BJ20" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="BJ20" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="BK20" t="inlineStr">
         <is>
           <t>яе</t>
         </is>
       </c>
-      <c r="BL20" t="inlineStr">
-        <is>
-          <t>0.000090</t>
-        </is>
+      <c r="BL20" t="n">
+        <v>8.986088411877362e-05</v>
       </c>
     </row>
     <row r="21">
@@ -6603,40 +5453,32 @@
           <t xml:space="preserve"> а</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0.002665</t>
-        </is>
+      <c r="B21" t="n">
+        <v>0.00266493684464738</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
           <t>аю</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.000750</t>
-        </is>
+      <c r="D21" t="n">
+        <v>0.0007497767518660174</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>бв</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="F21" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>вч</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>0.000143</t>
-        </is>
+      <c r="H21" t="n">
+        <v>0.0001432157840642955</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -6645,20 +5487,16 @@
           <t>дп</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>0.000107</t>
-        </is>
+      <c r="L21" t="n">
+        <v>0.0001067097998910437</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>ещ</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>0.000584</t>
-        </is>
+      <c r="N21" t="n">
+        <v>0.0005840957467720285</v>
       </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -6667,130 +5505,104 @@
           <t>зж</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>0.000076</t>
-        </is>
+      <c r="R21" t="n">
+        <v>7.582012097521524e-05</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
           <t>иг</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>0.000461</t>
-        </is>
+      <c r="T21" t="n">
+        <v>0.0004605370311087148</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
           <t>йф</t>
         </is>
       </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="V21" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
           <t>кб</t>
         </is>
       </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="X21" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
           <t>лп</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>0.000065</t>
-        </is>
+      <c r="Z21" t="n">
+        <v>6.458751046036854e-05</v>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>мч</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="AB21" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
           <t>нф</t>
         </is>
       </c>
-      <c r="AD21" t="inlineStr">
-        <is>
-          <t>0.000079</t>
-        </is>
+      <c r="AD21" t="n">
+        <v>7.862827360392692e-05</v>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
           <t>ои</t>
         </is>
       </c>
-      <c r="AF21" t="inlineStr">
-        <is>
-          <t>0.000705</t>
-        </is>
+      <c r="AF21" t="n">
+        <v>0.0007048463098066306</v>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
           <t>пц</t>
         </is>
       </c>
-      <c r="AH21" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AH21" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
           <t>рж</t>
         </is>
       </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>0.000208</t>
-        </is>
+      <c r="AJ21" t="n">
+        <v>0.000207803294524664</v>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
           <t>ср</t>
         </is>
       </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>0.000185</t>
-        </is>
+      <c r="AL21" t="n">
+        <v>0.0001853380734949706</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
           <t>тт</t>
         </is>
       </c>
-      <c r="AN21" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="AN21" t="n">
+        <v>7.020381571779189e-05</v>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
           <t>ущ</t>
         </is>
       </c>
-      <c r="AP21" t="inlineStr">
-        <is>
-          <t>0.000225</t>
-        </is>
+      <c r="AP21" t="n">
+        <v>0.0002246522102969341</v>
       </c>
       <c r="AQ21" t="inlineStr"/>
       <c r="AR21" t="inlineStr"/>
@@ -6799,10 +5611,8 @@
           <t>хх</t>
         </is>
       </c>
-      <c r="AT21" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AT21" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AU21" t="inlineStr"/>
       <c r="AV21" t="inlineStr"/>
@@ -6811,10 +5621,8 @@
           <t>чг</t>
         </is>
       </c>
-      <c r="AX21" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AX21" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AY21" t="inlineStr"/>
       <c r="AZ21" t="inlineStr"/>
@@ -6825,20 +5633,16 @@
           <t>ыз</t>
         </is>
       </c>
-      <c r="BD21" t="inlineStr">
-        <is>
-          <t>0.000062</t>
-        </is>
+      <c r="BD21" t="n">
+        <v>6.177935783165686e-05</v>
       </c>
       <c r="BE21" t="inlineStr">
         <is>
           <t>ьо</t>
         </is>
       </c>
-      <c r="BF21" t="inlineStr">
-        <is>
-          <t>0.000031</t>
-        </is>
+      <c r="BF21" t="n">
+        <v>3.088967891582843e-05</v>
       </c>
       <c r="BG21" t="inlineStr"/>
       <c r="BH21" t="inlineStr"/>
@@ -6847,20 +5651,16 @@
           <t>юж</t>
         </is>
       </c>
-      <c r="BJ21" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="BJ21" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="BK21" t="inlineStr">
         <is>
           <t>яп</t>
         </is>
       </c>
-      <c r="BL21" t="inlineStr">
-        <is>
-          <t>0.000073</t>
-        </is>
+      <c r="BL21" t="n">
+        <v>7.301196834650356e-05</v>
       </c>
     </row>
     <row r="22">
@@ -6869,40 +5669,32 @@
           <t xml:space="preserve"> э</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.002376</t>
-        </is>
+      <c r="B22" t="n">
+        <v>0.002375697123890078</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
           <t>ай</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.000604</t>
-        </is>
+      <c r="D22" t="n">
+        <v>0.0006037528151730103</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>бш</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="F22" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>вв</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>0.000138</t>
-        </is>
+      <c r="H22" t="n">
+        <v>0.0001375994788068721</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -6911,20 +5703,16 @@
           <t>дб</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="L22" t="n">
+        <v>7.020381571779189e-05</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>ех</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>0.000418</t>
-        </is>
+      <c r="N22" t="n">
+        <v>0.0004184147416780397</v>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -6933,130 +5721,104 @@
           <t>зп</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>0.000048</t>
-        </is>
+      <c r="R22" t="n">
+        <v>4.773859468809848e-05</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
           <t>иш</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>0.000441</t>
-        </is>
+      <c r="T22" t="n">
+        <v>0.0004408799627077331</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
           <t>йа</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="V22" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
           <t>кп</t>
         </is>
       </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="X22" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
           <t>лм</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>0.000059</t>
-        </is>
+      <c r="Z22" t="n">
+        <v>5.897120520294519e-05</v>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>мб</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="AB22" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="AC22" t="inlineStr">
         <is>
           <t>нз</t>
         </is>
       </c>
-      <c r="AD22" t="inlineStr">
-        <is>
-          <t>0.000059</t>
-        </is>
+      <c r="AD22" t="n">
+        <v>5.897120520294519e-05</v>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
           <t>оя</t>
         </is>
       </c>
-      <c r="AF22" t="inlineStr">
-        <is>
-          <t>0.000500</t>
-        </is>
+      <c r="AF22" t="n">
+        <v>0.0004998511679106782</v>
       </c>
       <c r="AG22" t="inlineStr">
         <is>
           <t>пв</t>
         </is>
       </c>
-      <c r="AH22" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AH22" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AI22" t="inlineStr">
         <is>
           <t>рх</t>
         </is>
       </c>
-      <c r="AJ22" t="inlineStr">
-        <is>
-          <t>0.000185</t>
-        </is>
+      <c r="AJ22" t="n">
+        <v>0.0001853380734949706</v>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
           <t>сх</t>
         </is>
       </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>0.000163</t>
-        </is>
+      <c r="AL22" t="n">
+        <v>0.0001628728524652772</v>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
           <t>тф</t>
         </is>
       </c>
-      <c r="AN22" t="inlineStr">
-        <is>
-          <t>0.000062</t>
-        </is>
+      <c r="AN22" t="n">
+        <v>6.177935783165686e-05</v>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
           <t>уф</t>
         </is>
       </c>
-      <c r="AP22" t="inlineStr">
-        <is>
-          <t>0.000185</t>
-        </is>
+      <c r="AP22" t="n">
+        <v>0.0001853380734949706</v>
       </c>
       <c r="AQ22" t="inlineStr"/>
       <c r="AR22" t="inlineStr"/>
@@ -7065,10 +5827,8 @@
           <t>хб</t>
         </is>
       </c>
-      <c r="AT22" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AT22" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AU22" t="inlineStr"/>
       <c r="AV22" t="inlineStr"/>
@@ -7083,20 +5843,16 @@
           <t>ыя</t>
         </is>
       </c>
-      <c r="BD22" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="BD22" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="BE22" t="inlineStr">
         <is>
           <t>ьф</t>
         </is>
       </c>
-      <c r="BF22" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="BF22" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="inlineStr"/>
@@ -7105,20 +5861,16 @@
           <t>юф</t>
         </is>
       </c>
-      <c r="BJ22" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BJ22" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BK22" t="inlineStr">
         <is>
           <t>яи</t>
         </is>
       </c>
-      <c r="BL22" t="inlineStr">
-        <is>
-          <t>0.000053</t>
-        </is>
+      <c r="BL22" t="n">
+        <v>5.335489994552184e-05</v>
       </c>
     </row>
     <row r="23">
@@ -7127,40 +5879,32 @@
           <t xml:space="preserve"> ж</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>0.001806</t>
-        </is>
+      <c r="B23" t="n">
+        <v>0.001805642140261608</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
           <t>аб</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.000553</t>
-        </is>
+      <c r="D23" t="n">
+        <v>0.0005532060678562001</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>бб</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="F23" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>вм</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>0.000129</t>
-        </is>
+      <c r="H23" t="n">
+        <v>0.0001291750209207371</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -7169,20 +5913,16 @@
           <t>дч</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="L23" t="n">
+        <v>6.739566308908021e-05</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>ец</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>0.000326</t>
-        </is>
+      <c r="N23" t="n">
+        <v>0.0003257457049305544</v>
       </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
@@ -7191,20 +5931,16 @@
           <t>зс</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="R23" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
           <t>ио</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>0.000407</t>
-        </is>
+      <c r="T23" t="n">
+        <v>0.000407182131163193</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
@@ -7215,40 +5951,32 @@
           <t>лд</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>0.000056</t>
-        </is>
+      <c r="Z23" t="n">
+        <v>5.616305257423352e-05</v>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>мд</t>
         </is>
       </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="AB23" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
           <t>нр</t>
         </is>
       </c>
-      <c r="AD23" t="inlineStr">
-        <is>
-          <t>0.000056</t>
-        </is>
+      <c r="AD23" t="n">
+        <v>5.616305257423352e-05</v>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
           <t>ох</t>
         </is>
       </c>
-      <c r="AF23" t="inlineStr">
-        <is>
-          <t>0.000489</t>
-        </is>
+      <c r="AF23" t="n">
+        <v>0.0004886185573958315</v>
       </c>
       <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="inlineStr"/>
@@ -7257,40 +5985,32 @@
           <t>рч</t>
         </is>
       </c>
-      <c r="AJ23" t="inlineStr">
-        <is>
-          <t>0.000174</t>
-        </is>
+      <c r="AJ23" t="n">
+        <v>0.0001741054629801239</v>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
           <t>сш</t>
         </is>
       </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>0.000132</t>
-        </is>
+      <c r="AL23" t="n">
+        <v>0.0001319831735494488</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
           <t>тм</t>
         </is>
       </c>
-      <c r="AN23" t="inlineStr">
-        <is>
-          <t>0.000045</t>
-        </is>
+      <c r="AN23" t="n">
+        <v>4.493044205938681e-05</v>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
           <t>уе</t>
         </is>
       </c>
-      <c r="AP23" t="inlineStr">
-        <is>
-          <t>0.000166</t>
-        </is>
+      <c r="AP23" t="n">
+        <v>0.0001656810050939889</v>
       </c>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="inlineStr"/>
@@ -7309,20 +6029,16 @@
           <t>ыи</t>
         </is>
       </c>
-      <c r="BD23" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="BD23" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
       <c r="BE23" t="inlineStr">
         <is>
           <t>ьл</t>
         </is>
       </c>
-      <c r="BF23" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="BF23" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="BG23" t="inlineStr"/>
       <c r="BH23" t="inlineStr"/>
@@ -7331,20 +6047,16 @@
           <t>юо</t>
         </is>
       </c>
-      <c r="BJ23" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BJ23" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BK23" t="inlineStr">
         <is>
           <t>яц</t>
         </is>
       </c>
-      <c r="BL23" t="inlineStr">
-        <is>
-          <t>0.000051</t>
-        </is>
+      <c r="BL23" t="n">
+        <v>5.054674731681016e-05</v>
       </c>
     </row>
     <row r="24">
@@ -7353,40 +6065,32 @@
           <t xml:space="preserve"> я</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>0.001528</t>
-        </is>
+      <c r="B24" t="n">
+        <v>0.001527635030019152</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>ащ</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.000345</t>
-        </is>
+      <c r="D24" t="n">
+        <v>0.0003454027733315361</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>бж</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="F24" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>вх</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0.000039</t>
-        </is>
+      <c r="H24" t="n">
+        <v>3.931413680196346e-05</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -7395,20 +6099,16 @@
           <t>дж</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="L24" t="n">
+        <v>6.739566308908021e-05</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>ео</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>0.000216</t>
-        </is>
+      <c r="N24" t="n">
+        <v>0.000216227752410799</v>
       </c>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
@@ -7417,20 +6117,16 @@
           <t>зч</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="R24" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
           <t>ип</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>0.000300</t>
-        </is>
+      <c r="T24" t="n">
+        <v>0.0003004723312721493</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
@@ -7441,40 +6137,32 @@
           <t>лз</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>0.000031</t>
-        </is>
+      <c r="Z24" t="n">
+        <v>3.088967891582843e-05</v>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>мэ</t>
         </is>
       </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="AB24" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
           <t>нв</t>
         </is>
       </c>
-      <c r="AD24" t="inlineStr">
-        <is>
-          <t>0.000042</t>
-        </is>
+      <c r="AD24" t="n">
+        <v>4.212228943067513e-05</v>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
           <t>ою</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>0.000376</t>
-        </is>
+      <c r="AF24" t="n">
+        <v>0.0003762924522473645</v>
       </c>
       <c r="AG24" t="inlineStr"/>
       <c r="AH24" t="inlineStr"/>
@@ -7483,40 +6171,32 @@
           <t>рс</t>
         </is>
       </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>0.000152</t>
-        </is>
+      <c r="AJ24" t="n">
+        <v>0.0001516402419504305</v>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
           <t>сю</t>
         </is>
       </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>0.000095</t>
-        </is>
+      <c r="AL24" t="n">
+        <v>9.547718937619697e-05</v>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
           <t>тц</t>
         </is>
       </c>
-      <c r="AN24" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="AN24" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
           <t>уй</t>
         </is>
       </c>
-      <c r="AP24" t="inlineStr">
-        <is>
-          <t>0.000140</t>
-        </is>
+      <c r="AP24" t="n">
+        <v>0.0001404076314355838</v>
       </c>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="inlineStr"/>
@@ -7535,20 +6215,16 @@
           <t>ыц</t>
         </is>
       </c>
-      <c r="BD24" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="BD24" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="BE24" t="inlineStr">
         <is>
           <t>ьщ</t>
         </is>
       </c>
-      <c r="BF24" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="BF24" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="BG24" t="inlineStr"/>
       <c r="BH24" t="inlineStr"/>
@@ -7557,20 +6233,16 @@
           <t>юп</t>
         </is>
       </c>
-      <c r="BJ24" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BJ24" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BK24" t="inlineStr">
         <is>
           <t>яй</t>
         </is>
       </c>
-      <c r="BL24" t="inlineStr">
-        <is>
-          <t>0.000037</t>
-        </is>
+      <c r="BL24" t="n">
+        <v>3.650598417325178e-05</v>
       </c>
     </row>
     <row r="25">
@@ -7579,40 +6251,32 @@
           <t xml:space="preserve"> х</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>0.001120</t>
-        </is>
+      <c r="B25" t="n">
+        <v>0.001120452898855959</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>аи</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.000320</t>
-        </is>
+      <c r="D25" t="n">
+        <v>0.000320129399673131</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>бд</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="F25" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>вц</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>0.000037</t>
-        </is>
+      <c r="H25" t="n">
+        <v>3.650598417325178e-05</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -7621,20 +6285,16 @@
           <t>дх</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>0.000028</t>
-        </is>
+      <c r="L25" t="n">
+        <v>2.808152628711676e-05</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>еи</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0.000174</t>
-        </is>
+      <c r="N25" t="n">
+        <v>0.0001741054629801239</v>
       </c>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
@@ -7643,20 +6303,16 @@
           <t>зт</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="R25" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
           <t>иж</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>0.000242</t>
-        </is>
+      <c r="T25" t="n">
+        <v>0.0002415011260692041</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -7667,40 +6323,32 @@
           <t>лв</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="Z25" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>мш</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="AB25" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
           <t>нж</t>
         </is>
       </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="AD25" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
           <t>оф</t>
         </is>
       </c>
-      <c r="AF25" t="inlineStr">
-        <is>
-          <t>0.000326</t>
-        </is>
+      <c r="AF25" t="n">
+        <v>0.0003257457049305544</v>
       </c>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="inlineStr"/>
@@ -7709,40 +6357,32 @@
           <t>рп</t>
         </is>
       </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>0.000062</t>
-        </is>
+      <c r="AJ25" t="n">
+        <v>6.177935783165686e-05</v>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
           <t>сб</t>
         </is>
       </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>0.000079</t>
-        </is>
+      <c r="AL25" t="n">
+        <v>7.862827360392692e-05</v>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
           <t>тб</t>
         </is>
       </c>
-      <c r="AN25" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="AN25" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
           <t>уа</t>
         </is>
       </c>
-      <c r="AP25" t="inlineStr">
-        <is>
-          <t>0.000129</t>
-        </is>
+      <c r="AP25" t="n">
+        <v>0.0001291750209207371</v>
       </c>
       <c r="AQ25" t="inlineStr"/>
       <c r="AR25" t="inlineStr"/>
@@ -7761,20 +6401,16 @@
           <t>ыу</t>
         </is>
       </c>
-      <c r="BD25" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BD25" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BE25" t="inlineStr">
         <is>
           <t>ьа</t>
         </is>
       </c>
-      <c r="BF25" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="BF25" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="BG25" t="inlineStr"/>
       <c r="BH25" t="inlineStr"/>
@@ -7783,20 +6419,16 @@
           <t>юи</t>
         </is>
       </c>
-      <c r="BJ25" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BJ25" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BK25" t="inlineStr">
         <is>
           <t>яб</t>
         </is>
       </c>
-      <c r="BL25" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="BL25" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
     </row>
     <row r="26">
@@ -7805,40 +6437,32 @@
           <t xml:space="preserve"> ш</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>0.001011</t>
-        </is>
+      <c r="B26" t="n">
+        <v>0.001010934946336203</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>аф</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.000208</t>
-        </is>
+      <c r="D26" t="n">
+        <v>0.000207803294524664</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>бт</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="F26" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
           <t>вг</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="H26" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -7847,20 +6471,16 @@
           <t>дг</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="L26" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
           <t>ею</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>0.000171</t>
-        </is>
+      <c r="N26" t="n">
+        <v>0.0001712973103514122</v>
       </c>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -7869,20 +6489,16 @@
           <t>зш</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="R26" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
           <t>ию</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>0.000225</t>
-        </is>
+      <c r="T26" t="n">
+        <v>0.0002246522102969341</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -7893,40 +6509,32 @@
           <t>лф</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>0.000017</t>
-        </is>
+      <c r="Z26" t="n">
+        <v>1.684891577227005e-05</v>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>мф</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AB26" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
           <t>нм</t>
         </is>
       </c>
-      <c r="AD26" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="AD26" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
           <t>ощ</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr">
-        <is>
-          <t>0.000227</t>
-        </is>
+      <c r="AF26" t="n">
+        <v>0.0002274603629256457</v>
       </c>
       <c r="AG26" t="inlineStr"/>
       <c r="AH26" t="inlineStr"/>
@@ -7935,40 +6543,32 @@
           <t>рб</t>
         </is>
       </c>
-      <c r="AJ26" t="inlineStr">
-        <is>
-          <t>0.000059</t>
-        </is>
+      <c r="AJ26" t="n">
+        <v>5.897120520294519e-05</v>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
           <t>сц</t>
         </is>
       </c>
-      <c r="AL26" t="inlineStr">
-        <is>
-          <t>0.000073</t>
-        </is>
+      <c r="AL26" t="n">
+        <v>7.301196834650356e-05</v>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
           <t>тх</t>
         </is>
       </c>
-      <c r="AN26" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="AN26" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
           <t>уя</t>
         </is>
       </c>
-      <c r="AP26" t="inlineStr">
-        <is>
-          <t>0.000079</t>
-        </is>
+      <c r="AP26" t="n">
+        <v>7.862827360392692e-05</v>
       </c>
       <c r="AQ26" t="inlineStr"/>
       <c r="AR26" t="inlineStr"/>
@@ -7987,20 +6587,16 @@
           <t>ыа</t>
         </is>
       </c>
-      <c r="BD26" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BD26" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BE26" t="inlineStr">
         <is>
           <t>ьж</t>
         </is>
       </c>
-      <c r="BF26" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="BF26" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="inlineStr"/>
@@ -8009,20 +6605,16 @@
           <t>юя</t>
         </is>
       </c>
-      <c r="BJ26" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BJ26" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BK26" t="inlineStr">
         <is>
           <t>яш</t>
         </is>
       </c>
-      <c r="BL26" t="inlineStr">
-        <is>
-          <t>0.000025</t>
-        </is>
+      <c r="BL26" t="n">
+        <v>2.527337365840508e-05</v>
       </c>
     </row>
     <row r="27">
@@ -8031,40 +6623,32 @@
           <t xml:space="preserve"> ф</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>0.000708</t>
-        </is>
+      <c r="B27" t="n">
+        <v>0.0007076544624353422</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>ау</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.000098</t>
-        </is>
+      <c r="D27" t="n">
+        <v>9.828534200490864e-05</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>бз</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="F27" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
           <t>вщ</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="H27" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -8073,20 +6657,16 @@
           <t>дз</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="L27" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
           <t>ея</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>0.000163</t>
-        </is>
+      <c r="N27" t="n">
+        <v>0.0001628728524652772</v>
       </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -8095,20 +6675,16 @@
           <t>зю</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="R27" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
           <t>иа</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.000222</t>
-        </is>
+      <c r="T27" t="n">
+        <v>0.0002218440576682224</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -8119,40 +6695,32 @@
           <t>лш</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="Z27" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>мц</t>
         </is>
       </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AB27" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AC27" t="inlineStr">
         <is>
           <t>нш</t>
         </is>
       </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="AD27" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="AE27" t="inlineStr">
         <is>
           <t>оо</t>
         </is>
       </c>
-      <c r="AF27" t="inlineStr">
-        <is>
-          <t>0.000185</t>
-        </is>
+      <c r="AF27" t="n">
+        <v>0.0001853380734949706</v>
       </c>
       <c r="AG27" t="inlineStr"/>
       <c r="AH27" t="inlineStr"/>
@@ -8161,40 +6729,32 @@
           <t>рц</t>
         </is>
       </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>0.000056</t>
-        </is>
+      <c r="AJ27" t="n">
+        <v>5.616305257423352e-05</v>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
           <t>сг</t>
         </is>
       </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>0.000039</t>
-        </is>
+      <c r="AL27" t="n">
+        <v>3.931413680196346e-05</v>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
           <t>тг</t>
         </is>
       </c>
-      <c r="AN27" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="AN27" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
           <t>уи</t>
         </is>
       </c>
-      <c r="AP27" t="inlineStr">
-        <is>
-          <t>0.000039</t>
-        </is>
+      <c r="AP27" t="n">
+        <v>3.931413680196346e-05</v>
       </c>
       <c r="AQ27" t="inlineStr"/>
       <c r="AR27" t="inlineStr"/>
@@ -8213,20 +6773,16 @@
           <t>ыщ</t>
         </is>
       </c>
-      <c r="BD27" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BD27" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BE27" t="inlineStr">
         <is>
           <t>ьр</t>
         </is>
       </c>
-      <c r="BF27" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BF27" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BG27" t="inlineStr"/>
       <c r="BH27" t="inlineStr"/>
@@ -8237,10 +6793,8 @@
           <t>яу</t>
         </is>
       </c>
-      <c r="BL27" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="BL27" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
     </row>
     <row r="28">
@@ -8249,20 +6803,16 @@
           <t xml:space="preserve"> ц</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>0.000289</t>
-        </is>
+      <c r="B28" t="n">
+        <v>0.0002892397207573026</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
           <t>ац</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.000070</t>
-        </is>
+      <c r="D28" t="n">
+        <v>7.020381571779189e-05</v>
       </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -8271,10 +6821,8 @@
           <t>вб</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="H28" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -8283,20 +6831,16 @@
           <t>дю</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="L28" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
           <t>еу</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>0.000163</t>
-        </is>
+      <c r="N28" t="n">
+        <v>0.0001628728524652772</v>
       </c>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
@@ -8307,10 +6851,8 @@
           <t>ищ</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.000211</t>
-        </is>
+      <c r="T28" t="n">
+        <v>0.0002106114471533757</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -8321,40 +6863,32 @@
           <t>лэ</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="Z28" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>мщ</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AB28" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AC28" t="inlineStr">
         <is>
           <t>нб</t>
         </is>
       </c>
-      <c r="AD28" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="AD28" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
           <t>оэ</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr">
-        <is>
-          <t>0.000157</t>
-        </is>
+      <c r="AF28" t="n">
+        <v>0.0001572565472078538</v>
       </c>
       <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="inlineStr"/>
@@ -8363,40 +6897,32 @@
           <t>рр</t>
         </is>
       </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>0.000056</t>
-        </is>
+      <c r="AJ28" t="n">
+        <v>5.616305257423352e-05</v>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
           <t>сж</t>
         </is>
       </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>0.000037</t>
-        </is>
+      <c r="AL28" t="n">
+        <v>3.650598417325178e-05</v>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
           <t>тш</t>
         </is>
       </c>
-      <c r="AN28" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AN28" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
           <t>уэ</t>
         </is>
       </c>
-      <c r="AP28" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="AP28" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="AQ28" t="inlineStr"/>
       <c r="AR28" t="inlineStr"/>
@@ -8417,10 +6943,8 @@
           <t>ьэ</t>
         </is>
       </c>
-      <c r="BF28" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BF28" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BG28" t="inlineStr"/>
       <c r="BH28" t="inlineStr"/>
@@ -8431,10 +6955,8 @@
           <t>яа</t>
         </is>
       </c>
-      <c r="BL28" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="BL28" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="29">
@@ -8443,20 +6965,16 @@
           <t xml:space="preserve"> щ</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0.000168</t>
-        </is>
+      <c r="B29" t="n">
+        <v>0.0001684891577227005</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>ао</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.000053</t>
-        </is>
+      <c r="D29" t="n">
+        <v>5.335489994552184e-05</v>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -8469,20 +6987,16 @@
           <t>дд</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="L29" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
           <t>еа</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>0.000160</t>
-        </is>
+      <c r="N29" t="n">
+        <v>0.0001600646998365655</v>
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
@@ -8493,10 +7007,8 @@
           <t>иу</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>0.000124</t>
-        </is>
+      <c r="T29" t="n">
+        <v>0.0001235587156633137</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -8509,30 +7021,24 @@
           <t>мз</t>
         </is>
       </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AB29" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
           <t>нп</t>
         </is>
       </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AD29" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
           <t>оц</t>
         </is>
       </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>0.000138</t>
-        </is>
+      <c r="AF29" t="n">
+        <v>0.0001375994788068721</v>
       </c>
       <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="inlineStr"/>
@@ -8541,40 +7047,32 @@
           <t>рз</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>0.000045</t>
-        </is>
+      <c r="AJ29" t="n">
+        <v>4.493044205938681e-05</v>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
           <t>сз</t>
         </is>
       </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>0.000022</t>
-        </is>
+      <c r="AL29" t="n">
+        <v>2.24652210296934e-05</v>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
           <t>тз</t>
         </is>
       </c>
-      <c r="AN29" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AN29" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
           <t>уо</t>
         </is>
       </c>
-      <c r="AP29" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="AP29" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="AQ29" t="inlineStr"/>
       <c r="AR29" t="inlineStr"/>
@@ -8595,10 +7093,8 @@
           <t>ьу</t>
         </is>
       </c>
-      <c r="BF29" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BF29" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="BG29" t="inlineStr"/>
       <c r="BH29" t="inlineStr"/>
@@ -8609,10 +7105,8 @@
           <t>яф</t>
         </is>
       </c>
-      <c r="BL29" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="BL29" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
     </row>
     <row r="30">
@@ -8621,20 +7115,16 @@
           <t xml:space="preserve"> ю</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>0.000048</t>
-        </is>
+      <c r="B30" t="n">
+        <v>4.773859468809848e-05</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>аа</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.000034</t>
-        </is>
+      <c r="D30" t="n">
+        <v>3.369783154454011e-05</v>
       </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -8649,10 +7139,8 @@
           <t>еф</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>0.000118</t>
-        </is>
+      <c r="N30" t="n">
+        <v>0.0001179424104058904</v>
       </c>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
@@ -8663,10 +7151,8 @@
           <t>иф</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>0.000081</t>
-        </is>
+      <c r="T30" t="n">
+        <v>8.143642623263859e-05</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -8683,10 +7169,8 @@
           <t>оу</t>
         </is>
       </c>
-      <c r="AF30" t="inlineStr">
-        <is>
-          <t>0.000067</t>
-        </is>
+      <c r="AF30" t="n">
+        <v>6.739566308908021e-05</v>
       </c>
       <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="inlineStr"/>
@@ -8695,40 +7179,32 @@
           <t>рщ</t>
         </is>
       </c>
-      <c r="AJ30" t="inlineStr">
-        <is>
-          <t>0.000042</t>
-        </is>
+      <c r="AJ30" t="n">
+        <v>4.212228943067513e-05</v>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
           <t>сф</t>
         </is>
       </c>
-      <c r="AL30" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="AL30" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
           <t>тщ</t>
         </is>
       </c>
-      <c r="AN30" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AN30" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
           <t>уу</t>
         </is>
       </c>
-      <c r="AP30" t="inlineStr">
-        <is>
-          <t>0.000011</t>
-        </is>
+      <c r="AP30" t="n">
+        <v>1.12326105148467e-05</v>
       </c>
       <c r="AQ30" t="inlineStr"/>
       <c r="AR30" t="inlineStr"/>
@@ -8755,10 +7231,8 @@
           <t>яэ</t>
         </is>
       </c>
-      <c r="BL30" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="BL30" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
     </row>
     <row r="31">
@@ -8767,20 +7241,16 @@
           <t xml:space="preserve"> й</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="B31" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
           <t>аэ</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.000014</t>
-        </is>
+      <c r="D31" t="n">
+        <v>1.404076314355838e-05</v>
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -8795,10 +7265,8 @@
           <t>еэ</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="N31" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
@@ -8809,10 +7277,8 @@
           <t>иэ</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0.000008</t>
-        </is>
+      <c r="T31" t="n">
+        <v>8.424457886135027e-06</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -8829,10 +7295,8 @@
           <t>оа</t>
         </is>
       </c>
-      <c r="AF31" t="inlineStr">
-        <is>
-          <t>0.000020</t>
-        </is>
+      <c r="AF31" t="n">
+        <v>1.965706840098173e-05</v>
       </c>
       <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="inlineStr"/>
@@ -8841,40 +7305,32 @@
           <t>рф</t>
         </is>
       </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AJ31" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
           <t>сщ</t>
         </is>
       </c>
-      <c r="AL31" t="inlineStr">
-        <is>
-          <t>0.000006</t>
-        </is>
+      <c r="AL31" t="n">
+        <v>5.616305257423351e-06</v>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
           <t>тэ</t>
         </is>
       </c>
-      <c r="AN31" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AN31" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
           <t>уц</t>
         </is>
       </c>
-      <c r="AP31" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AP31" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AQ31" t="inlineStr"/>
       <c r="AR31" t="inlineStr"/>
@@ -8901,10 +7357,8 @@
           <t>яо</t>
         </is>
       </c>
-      <c r="BL31" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="BL31" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
     </row>
     <row r="32">
@@ -8949,10 +7403,8 @@
           <t>сэ</t>
         </is>
       </c>
-      <c r="AL32" t="inlineStr">
-        <is>
-          <t>0.000003</t>
-        </is>
+      <c r="AL32" t="n">
+        <v>2.808152628711676e-06</v>
       </c>
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
